--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_18.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>755517.5207270082</v>
+        <v>756008.2473040161</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2688149.654238722</v>
+        <v>2396483.305182807</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8966943.138461765</v>
+        <v>8681080.949752063</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7622816.543452211</v>
+        <v>7732948.326292342</v>
       </c>
     </row>
     <row r="11">
@@ -656,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>326.8229120938094</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>387.3665122342187</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>164.8484195083599</v>
@@ -719,13 +721,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -823,22 +825,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -865,16 +867,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>53.0363847091458</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,10 +895,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -908,7 +910,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>278.9283838416264</v>
+        <v>308.7393797385112</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,13 +943,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -959,7 +961,7 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>392.5258019886049</v>
@@ -1099,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>116.3621902967423</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347867</v>
       </c>
       <c r="X7" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1130,16 +1132,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1148,7 +1150,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1178,19 +1180,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>41.13559789371222</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
@@ -1199,7 +1201,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>130.2073136987925</v>
       </c>
     </row>
     <row r="9">
@@ -1309,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>22.96189723698674</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1345,7 +1347,7 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>203.857307440371</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1367,13 +1369,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
-        <v>364.0457092032245</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -1382,10 +1384,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1423,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>202.5674242889665</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1528,7 +1530,7 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>66.0314987001008</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1537,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>86.64940239199029</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1573,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1604,25 +1606,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>332.7770642499989</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1658,22 +1660,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>385.5580790162737</v>
+        <v>384.8432471689912</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,31 +1764,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>131.6846499321096</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>118.9046835062787</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1810,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -1831,7 +1833,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -1862,7 +1864,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1889,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1910,7 +1912,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>372.4089305243873</v>
+        <v>133.4850913305375</v>
       </c>
     </row>
     <row r="18">
@@ -2047,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>280.4970980481341</v>
+        <v>54.65872702774727</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2078,10 +2080,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>187.6020624178955</v>
+        <v>356.4390172209547</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
         <v>381.5867174954989</v>
@@ -2090,7 +2092,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2099,7 +2101,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2126,7 +2128,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S20" t="n">
         <v>164.8484195083599</v>
@@ -2141,13 +2143,13 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2242,13 +2244,13 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>11.61260049965443</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2290,22 +2292,22 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>24.62728190311237</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2317,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C23" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,25 +2368,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>385.5580790162737</v>
+        <v>188.1680374470268</v>
       </c>
       <c r="Y23" t="n">
-        <v>159.7453413345784</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="24">
@@ -2479,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>100.3434053864687</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2527,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>66.03149870010103</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2558,16 +2560,16 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>269.1458746145468</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>256.7115579699416</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -2606,16 +2608,16 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
@@ -2713,7 +2715,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>27.55151359234004</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,22 +2766,22 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2795,7 +2797,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>157.0292608572034</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
@@ -2804,13 +2806,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2837,7 +2839,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -2852,10 +2854,10 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>219.0985733926083</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y29" t="n">
         <v>392.5258019886049</v>
@@ -2950,25 +2952,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>78.56977554305671</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,13 +3012,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>124.6926731360857</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -3035,10 +3037,10 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>302.1480073738684</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
@@ -3080,13 +3082,13 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>108.8247535352256</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
@@ -3190,19 +3192,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>130.4178928586281</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>27.55151359234004</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
         <v>131.7634811092929</v>
@@ -3247,13 +3249,13 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -3266,22 +3268,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>249.3584931397686</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>77.55610858200005</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
@@ -3326,7 +3328,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3427,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>130.4178928586277</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3475,16 +3477,16 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>113.1667354347865</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -3500,10 +3502,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>389.2437464820987</v>
+        <v>175.0620721735486</v>
       </c>
       <c r="D38" t="n">
         <v>381.5867174954989</v>
@@ -3521,7 +3523,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3548,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>14.11390424168885</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3569,7 +3571,7 @@
         <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="39">
@@ -3658,31 +3660,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>70.6555724897252</v>
       </c>
       <c r="G40" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3709,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>9.126850821345453</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -3743,19 +3745,19 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>91.75746486183922</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G41" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H41" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>136.9537457384598</v>
@@ -3788,22 +3790,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>215.465320879477</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3943,28 +3945,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>116.3621902967422</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>95.98918911403644</v>
       </c>
       <c r="Y43" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D44" t="n">
-        <v>381.5867174954989</v>
+        <v>229.2671475085637</v>
       </c>
       <c r="E44" t="n">
         <v>398.5576896346209</v>
@@ -3992,7 +3994,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H44" t="n">
-        <v>13.19921712438203</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4022,7 +4024,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -4031,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -4040,10 +4042,10 @@
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -4074,7 +4076,7 @@
         <v>87.41444223540508</v>
       </c>
       <c r="I45" t="n">
-        <v>48.89338144820825</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>183.3559385043883</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="C46" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4189,19 +4191,19 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>11.61260049965499</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>438.5922753886333</v>
+        <v>1233.032792569768</v>
       </c>
       <c r="C2" t="n">
-        <v>438.5922753886333</v>
+        <v>839.8572910726987</v>
       </c>
       <c r="D2" t="n">
-        <v>438.5922753886333</v>
+        <v>839.8572910726987</v>
       </c>
       <c r="E2" t="n">
-        <v>438.5922753886333</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="F2" t="n">
-        <v>438.5922753886333</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="G2" t="n">
-        <v>47.31297010154361</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H2" t="n">
-        <v>47.31297010154361</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J2" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K2" t="n">
-        <v>550.9450990378335</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L2" t="n">
-        <v>1044.265390756362</v>
+        <v>318.7636682303378</v>
       </c>
       <c r="M2" t="n">
-        <v>1590.266290800943</v>
+        <v>864.7645682749184</v>
       </c>
       <c r="N2" t="n">
-        <v>1590.266290800943</v>
+        <v>1392.57585191238</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.61545280471</v>
+        <v>1832.615452804709</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936232</v>
+        <v>2180.802944936231</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R2" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S2" t="n">
-        <v>2161.142036303753</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T2" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U2" t="n">
-        <v>1937.641433863169</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="V2" t="n">
-        <v>1595.534624566688</v>
+        <v>1633.527538281165</v>
       </c>
       <c r="W2" t="n">
-        <v>1224.535589534975</v>
+        <v>1633.527538281165</v>
       </c>
       <c r="X2" t="n">
-        <v>835.0829844680321</v>
+        <v>1633.527538281165</v>
       </c>
       <c r="Y2" t="n">
-        <v>438.5922753886333</v>
+        <v>1633.527538281165</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F3" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963223</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J3" t="n">
-        <v>47.31297010154367</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K3" t="n">
-        <v>367.0521161637701</v>
+        <v>160.427952321271</v>
       </c>
       <c r="L3" t="n">
-        <v>850.6182020620834</v>
+        <v>160.427952321271</v>
       </c>
       <c r="M3" t="n">
-        <v>1436.116207068686</v>
+        <v>745.9259573278729</v>
       </c>
       <c r="N3" t="n">
-        <v>1960.027136360783</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O3" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P3" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4452,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="4">
@@ -4462,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E4" t="n">
-        <v>47.31297010154361</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F4" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G4" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H4" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I4" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4513,25 +4515,25 @@
         <v>824.8590032756731</v>
       </c>
       <c r="S4" t="n">
-        <v>622.0429194582225</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T4" t="n">
-        <v>386.3238676264566</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U4" t="n">
-        <v>100.8850758683575</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y4" t="n">
-        <v>47.31297010154361</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1541.71227721636</v>
+        <v>1178.648892786851</v>
       </c>
       <c r="C5" t="n">
-        <v>1148.536775719291</v>
+        <v>1178.648892786851</v>
       </c>
       <c r="D5" t="n">
-        <v>1148.536775719291</v>
+        <v>1178.648892786851</v>
       </c>
       <c r="E5" t="n">
-        <v>745.953250835835</v>
+        <v>776.0653679033953</v>
       </c>
       <c r="F5" t="n">
-        <v>329.0588123658127</v>
+        <v>359.1709294333731</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K5" t="n">
-        <v>173.6308686433316</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="L5" t="n">
-        <v>666.9511603618604</v>
+        <v>899.6156178475343</v>
       </c>
       <c r="M5" t="n">
-        <v>1212.952060406441</v>
+        <v>1445.616517892115</v>
       </c>
       <c r="N5" t="n">
-        <v>1740.763344043903</v>
+        <v>1973.427801529577</v>
       </c>
       <c r="O5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P5" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R5" t="n">
-        <v>2327.655591362702</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S5" t="n">
-        <v>2327.655591362702</v>
+        <v>2199.13495001823</v>
       </c>
       <c r="T5" t="n">
-        <v>2327.655591362702</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="U5" t="n">
-        <v>2327.655591362702</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="V5" t="n">
-        <v>2327.655591362702</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="W5" t="n">
-        <v>2327.655591362702</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="X5" t="n">
-        <v>1938.202986295759</v>
+        <v>1975.634347577647</v>
       </c>
       <c r="Y5" t="n">
-        <v>1541.71227721636</v>
+        <v>1579.143638498248</v>
       </c>
     </row>
     <row r="6">
@@ -4638,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963202</v>
+        <v>96.70022408963203</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K6" t="n">
-        <v>160.427952321271</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L6" t="n">
-        <v>160.427952321271</v>
+        <v>530.8790559998569</v>
       </c>
       <c r="M6" t="n">
-        <v>745.9259573278732</v>
+        <v>1116.377061006459</v>
       </c>
       <c r="N6" t="n">
-        <v>1209.14176221491</v>
+        <v>1443.506853769801</v>
       </c>
       <c r="O6" t="n">
-        <v>1725.662044805891</v>
+        <v>1960.027136360782</v>
       </c>
       <c r="P6" t="n">
-        <v>2131.283413522289</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4699,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4747,28 +4749,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R7" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S7" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T7" t="n">
-        <v>504.5053535019172</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U7" t="n">
-        <v>504.5053535019172</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V7" t="n">
-        <v>504.5053535019172</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
-        <v>504.5053535019172</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="X7" t="n">
-        <v>270.4250312849002</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1167.155046915578</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="C8" t="n">
-        <v>773.9795454185085</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="D8" t="n">
-        <v>773.9795454185085</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="E8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="F8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="G8" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K8" t="n">
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>503.6092283712866</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>1049.610128415867</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1577.421412053329</v>
       </c>
       <c r="O8" t="n">
-        <v>2365.64850507718</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362701</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.142036303752</v>
       </c>
       <c r="T8" t="n">
-        <v>2365.64850507718</v>
+        <v>1937.641433863168</v>
       </c>
       <c r="U8" t="n">
-        <v>2324.097396093633</v>
+        <v>1681.888704297767</v>
       </c>
       <c r="V8" t="n">
-        <v>2324.097396093633</v>
+        <v>1339.781895001286</v>
       </c>
       <c r="W8" t="n">
-        <v>1953.09836106192</v>
+        <v>968.7828599695731</v>
       </c>
       <c r="X8" t="n">
-        <v>1563.645755994977</v>
+        <v>579.3302549026299</v>
       </c>
       <c r="Y8" t="n">
-        <v>1167.155046915578</v>
+        <v>447.8077158129405</v>
       </c>
     </row>
     <row r="9">
@@ -4857,67 +4859,67 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>846.6789532415751</v>
+        <v>846.6789532415746</v>
       </c>
       <c r="C9" t="n">
-        <v>696.0247228016672</v>
+        <v>696.0247228016668</v>
       </c>
       <c r="D9" t="n">
-        <v>565.9357554231476</v>
+        <v>565.9357554231472</v>
       </c>
       <c r="E9" t="n">
-        <v>429.4892645340353</v>
+        <v>429.4892645340348</v>
       </c>
       <c r="F9" t="n">
-        <v>305.057458417167</v>
+        <v>305.0574584171666</v>
       </c>
       <c r="G9" t="n">
-        <v>184.9976404890315</v>
+        <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.70022408963223</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154367</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J9" t="n">
-        <v>160.4279523212711</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K9" t="n">
-        <v>160.4279523212711</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L9" t="n">
-        <v>643.9940382195844</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="M9" t="n">
-        <v>1229.492043226187</v>
+        <v>623.6437572083082</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q9" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R9" t="n">
-        <v>2341.731461975245</v>
+        <v>2341.731461975244</v>
       </c>
       <c r="S9" t="n">
-        <v>2206.800784875114</v>
+        <v>2206.800784875113</v>
       </c>
       <c r="T9" t="n">
-        <v>2029.816973074022</v>
+        <v>2029.816973074021</v>
       </c>
       <c r="U9" t="n">
-        <v>1819.753829752664</v>
+        <v>1819.753829752663</v>
       </c>
       <c r="V9" t="n">
-        <v>1597.213828123731</v>
+        <v>1597.21382812373</v>
       </c>
       <c r="W9" t="n">
         <v>1367.096582257017</v>
@@ -4926,7 +4928,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y9" t="n">
-        <v>998.4752876825364</v>
+        <v>998.475287682536</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4993,19 +4995,19 @@
         <v>386.3238676264566</v>
       </c>
       <c r="U10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="V10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="W10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="X10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
       <c r="Y10" t="n">
-        <v>180.4073954644657</v>
+        <v>100.8850758683575</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>808.2114101877287</v>
+        <v>1563.175406327452</v>
       </c>
       <c r="C11" t="n">
-        <v>415.0359086906593</v>
+        <v>1169.999904830382</v>
       </c>
       <c r="D11" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E11" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F11" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G11" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K11" t="n">
-        <v>406.2953261290054</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L11" t="n">
-        <v>899.6156178475343</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M11" t="n">
-        <v>1445.616517892115</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184852</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T11" t="n">
-        <v>2365.64850507718</v>
+        <v>2161.034945189334</v>
       </c>
       <c r="U11" t="n">
-        <v>2365.64850507718</v>
+        <v>1905.282215623933</v>
       </c>
       <c r="V11" t="n">
-        <v>2365.64850507718</v>
+        <v>1563.175406327452</v>
       </c>
       <c r="W11" t="n">
-        <v>1994.649470045468</v>
+        <v>1563.175406327452</v>
       </c>
       <c r="X11" t="n">
-        <v>1605.196864978524</v>
+        <v>1563.175406327452</v>
       </c>
       <c r="Y11" t="n">
-        <v>1208.706155899126</v>
+        <v>1563.175406327452</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5114,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="J12" t="n">
-        <v>47.31297010154361</v>
+        <v>47.3129701015436</v>
       </c>
       <c r="K12" t="n">
-        <v>194.5661265746817</v>
+        <v>367.0521161637701</v>
       </c>
       <c r="L12" t="n">
-        <v>678.132212472995</v>
+        <v>850.6182020620834</v>
       </c>
       <c r="M12" t="n">
-        <v>1263.630217479597</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N12" t="n">
-        <v>1849.128222486199</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O12" t="n">
-        <v>2365.64850507718</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P12" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q12" t="n">
         <v>2365.648505077179</v>
@@ -5173,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.011453636999</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="C13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="D13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="E13" t="n">
-        <v>47.31297010154361</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="F13" t="n">
-        <v>47.31297010154361</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G13" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H13" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I13" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5221,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="T13" t="n">
-        <v>948.7599926430961</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="U13" t="n">
-        <v>663.3212008849971</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="V13" t="n">
-        <v>397.3418557058213</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="W13" t="n">
-        <v>114.011453636999</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="X13" t="n">
-        <v>114.011453636999</v>
+        <v>622.0429194582225</v>
       </c>
       <c r="Y13" t="n">
-        <v>114.011453636999</v>
+        <v>622.0429194582225</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1179.210445219441</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="C14" t="n">
-        <v>786.0349437223717</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="D14" t="n">
-        <v>449.8964949849991</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="E14" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="F14" t="n">
-        <v>47.31297010154361</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="G14" t="n">
-        <v>47.31297010154361</v>
+        <v>371.396020535053</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J14" t="n">
-        <v>191.9627430103717</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K14" t="n">
-        <v>550.9450990378335</v>
+        <v>358.4764287842793</v>
       </c>
       <c r="L14" t="n">
-        <v>1044.265390756362</v>
+        <v>851.7967205028082</v>
       </c>
       <c r="M14" t="n">
-        <v>1590.266290800943</v>
+        <v>1397.797620547389</v>
       </c>
       <c r="N14" t="n">
-        <v>2118.077574438405</v>
+        <v>1925.608904184851</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.64850507718</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="T14" t="n">
-        <v>2365.64850507718</v>
+        <v>2142.147902636596</v>
       </c>
       <c r="U14" t="n">
-        <v>2365.64850507718</v>
+        <v>1886.395173071195</v>
       </c>
       <c r="V14" t="n">
-        <v>2365.64850507718</v>
+        <v>1544.288363774713</v>
       </c>
       <c r="W14" t="n">
-        <v>2365.64850507718</v>
+        <v>1173.289328743001</v>
       </c>
       <c r="X14" t="n">
-        <v>1976.195900010237</v>
+        <v>784.5587760470498</v>
       </c>
       <c r="Y14" t="n">
-        <v>1579.705190930838</v>
+        <v>784.5587760470498</v>
       </c>
     </row>
     <row r="15">
@@ -5349,16 +5351,16 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.70022408963202</v>
+        <v>96.700224089632</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="L15" t="n">
         <v>530.8790559998569</v>
@@ -5373,7 +5375,7 @@
         <v>2218.395348604042</v>
       </c>
       <c r="P15" t="n">
-        <v>2218.395348604042</v>
+        <v>2365.648505077179</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>337.6238289509874</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="C16" t="n">
-        <v>167.4187110169767</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="D16" t="n">
-        <v>167.4187110169767</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="E16" t="n">
-        <v>167.4187110169767</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F16" t="n">
-        <v>167.4187110169767</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G16" t="n">
-        <v>47.31297010154361</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H16" t="n">
-        <v>47.31297010154361</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I16" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544164</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154361</v>
+        <v>47.31297010154359</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852853</v>
+        <v>293.2756510852852</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5458,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>948.7599926430961</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="S16" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="T16" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="U16" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="V16" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="W16" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="X16" t="n">
-        <v>745.9439088256454</v>
+        <v>824.8590032756731</v>
       </c>
       <c r="Y16" t="n">
-        <v>522.8318476422887</v>
+        <v>824.8590032756731</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1989.47786818386</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="C17" t="n">
-        <v>1989.47786818386</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D17" t="n">
-        <v>1604.036739400527</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E17" t="n">
-        <v>1201.453214517072</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F17" t="n">
-        <v>784.5587760470498</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G17" t="n">
-        <v>371.396020535053</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H17" t="n">
-        <v>47.31297010154361</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I17" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J17" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K17" t="n">
-        <v>358.4764287842802</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L17" t="n">
-        <v>851.7967205028091</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M17" t="n">
-        <v>1397.79762054739</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N17" t="n">
-        <v>1925.608904184852</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O17" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P17" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q17" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>2365.64850507718</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S17" t="n">
-        <v>2365.64850507718</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T17" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="V17" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="W17" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="X17" t="n">
-        <v>2365.64850507718</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="Y17" t="n">
-        <v>1989.47786818386</v>
+        <v>2543.115888405364</v>
       </c>
     </row>
     <row r="18">
@@ -5568,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>846.6789532415746</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C18" t="n">
-        <v>696.0247228016668</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D18" t="n">
-        <v>565.9357554231472</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E18" t="n">
-        <v>429.4892645340348</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F18" t="n">
-        <v>305.0574584171666</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G18" t="n">
-        <v>184.9976404890311</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H18" t="n">
-        <v>96.70022408963202</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K18" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L18" t="n">
-        <v>530.8790559998569</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M18" t="n">
-        <v>1116.377061006459</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N18" t="n">
-        <v>1701.875066013061</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O18" t="n">
-        <v>2218.395348604042</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P18" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q18" t="n">
-        <v>2365.648505077179</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R18" t="n">
-        <v>2341.731461975244</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S18" t="n">
-        <v>2206.800784875113</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T18" t="n">
-        <v>2029.816973074021</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U18" t="n">
-        <v>1819.753829752663</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V18" t="n">
-        <v>1597.21382812373</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W18" t="n">
-        <v>1367.096582257017</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X18" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y18" t="n">
-        <v>998.475287682536</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="C19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="D19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="E19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="F19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="G19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="H19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="I19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K19" t="n">
-        <v>129.1480112114855</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L19" t="n">
-        <v>293.2756510852853</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M19" t="n">
-        <v>479.5672294235493</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N19" t="n">
-        <v>662.7568634547586</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O19" t="n">
-        <v>825.4616304964666</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P19" t="n">
-        <v>945.3377962730451</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q19" t="n">
-        <v>948.7599926430961</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R19" t="n">
-        <v>948.7599926430961</v>
+        <v>2982.055395838353</v>
       </c>
       <c r="S19" t="n">
-        <v>948.7599926430961</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="T19" t="n">
-        <v>882.0615091076409</v>
+        <v>2779.239312020903</v>
       </c>
       <c r="U19" t="n">
-        <v>596.6227173495417</v>
+        <v>2493.800520262804</v>
       </c>
       <c r="V19" t="n">
-        <v>330.643372170366</v>
+        <v>2493.800520262804</v>
       </c>
       <c r="W19" t="n">
-        <v>47.31297010154361</v>
+        <v>2438.589684881241</v>
       </c>
       <c r="X19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="Y19" t="n">
-        <v>47.31297010154361</v>
+        <v>2204.509362664224</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>771.6433069209571</v>
+        <v>1720.050363795584</v>
       </c>
       <c r="C20" t="n">
-        <v>771.6433069209571</v>
+        <v>1326.874862298514</v>
       </c>
       <c r="D20" t="n">
-        <v>386.2021781376249</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="E20" t="n">
-        <v>386.2021781376249</v>
+        <v>941.4337335151823</v>
       </c>
       <c r="F20" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H20" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I20" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5765,37 +5767,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491297</v>
       </c>
       <c r="S20" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T20" t="n">
-        <v>2715.942227706244</v>
+        <v>2677.949313991764</v>
       </c>
       <c r="U20" t="n">
-        <v>2460.189498140842</v>
+        <v>2422.196584426363</v>
       </c>
       <c r="V20" t="n">
-        <v>2118.082688844361</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="W20" t="n">
-        <v>1747.083653812648</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="X20" t="n">
-        <v>1357.631048745705</v>
+        <v>2080.089775129882</v>
       </c>
       <c r="Y20" t="n">
-        <v>961.1403396663061</v>
+        <v>2080.089775129882</v>
       </c>
     </row>
     <row r="21">
@@ -5814,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5826,28 +5828,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K21" t="n">
-        <v>175.2341099238429</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L21" t="n">
-        <v>658.8001958221562</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M21" t="n">
-        <v>1223.947919817482</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N21" t="n">
-        <v>1223.947919817482</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O21" t="n">
-        <v>1740.468202408463</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P21" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q21" t="n">
         <v>2380.454662679751</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2374.714480598234</v>
+        <v>2697.636305331117</v>
       </c>
       <c r="C22" t="n">
-        <v>2204.509362664224</v>
+        <v>2527.431187397106</v>
       </c>
       <c r="D22" t="n">
-        <v>2204.509362664224</v>
+        <v>2371.798074299621</v>
       </c>
       <c r="E22" t="n">
-        <v>2204.509362664224</v>
+        <v>2216.239262158823</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664224</v>
+        <v>2204.509362664223</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774166</v>
+        <v>2286.344403774165</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647965</v>
+        <v>2450.472043647964</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986229</v>
+        <v>2636.763621986228</v>
       </c>
       <c r="N22" t="n">
         <v>2819.953256017438</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059147</v>
+        <v>2982.658023059146</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835725</v>
+        <v>3102.534188835724</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="T22" t="n">
-        <v>2870.237333374011</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="U22" t="n">
-        <v>2584.798541615912</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="V22" t="n">
-        <v>2584.798541615912</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="W22" t="n">
-        <v>2559.922499289536</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="X22" t="n">
-        <v>2559.922499289536</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="Y22" t="n">
-        <v>2559.922499289536</v>
+        <v>2882.844324022419</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1196.272118104717</v>
+        <v>2118.902205721014</v>
       </c>
       <c r="C23" t="n">
-        <v>803.0966166076471</v>
+        <v>1725.726704223945</v>
       </c>
       <c r="D23" t="n">
-        <v>803.0966166076471</v>
+        <v>1340.285575440613</v>
       </c>
       <c r="E23" t="n">
-        <v>803.0966166076471</v>
+        <v>937.702050557157</v>
       </c>
       <c r="F23" t="n">
-        <v>386.2021781376249</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G23" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H23" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6014,25 +6016,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>2939.442830146827</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T23" t="n">
-        <v>2715.942227706244</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>2460.189498140842</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V23" t="n">
-        <v>2118.082688844361</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W23" t="n">
-        <v>1747.083653812648</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X23" t="n">
-        <v>1357.631048745705</v>
+        <v>2915.88766051181</v>
       </c>
       <c r="Y23" t="n">
-        <v>1196.272118104717</v>
+        <v>2519.396951432411</v>
       </c>
     </row>
     <row r="24">
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C25" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D25" t="n">
-        <v>2204.509362664224</v>
+        <v>862.2091751078208</v>
       </c>
       <c r="E25" t="n">
-        <v>2204.509362664224</v>
+        <v>706.6503629670233</v>
       </c>
       <c r="F25" t="n">
-        <v>2204.509362664224</v>
+        <v>549.3244281799962</v>
       </c>
       <c r="G25" t="n">
-        <v>2204.509362664224</v>
+        <v>381.0703742794417</v>
       </c>
       <c r="H25" t="n">
-        <v>2204.509362664224</v>
+        <v>225.5918232409357</v>
       </c>
       <c r="I25" t="n">
-        <v>2204.509362664224</v>
+        <v>92.49739787801357</v>
       </c>
       <c r="J25" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L25" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M25" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O25" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P25" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S25" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>3039.257901670321</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U25" t="n">
-        <v>2753.819109912222</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V25" t="n">
-        <v>2487.839764733046</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W25" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X25" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y25" t="n">
-        <v>2204.509362664224</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6202,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>727.1591490138585</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C26" t="n">
-        <v>333.9836475167891</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D26" t="n">
-        <v>62.11912770411553</v>
+        <v>1140.901695067635</v>
       </c>
       <c r="E26" t="n">
-        <v>62.11912770411553</v>
+        <v>738.3181701841797</v>
       </c>
       <c r="F26" t="n">
-        <v>62.11912770411553</v>
+        <v>321.4237317141575</v>
       </c>
       <c r="G26" t="n">
         <v>62.11912770411553</v>
@@ -6254,22 +6256,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T26" t="n">
-        <v>2882.455782765193</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U26" t="n">
-        <v>2626.703053199792</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V26" t="n">
-        <v>2284.59624390331</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W26" t="n">
-        <v>1913.597208871598</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X26" t="n">
-        <v>1524.144603804654</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y26" t="n">
-        <v>1127.653894725255</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="27">
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>223.043364776472</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H28" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I28" t="n">
         <v>62.11912770411553</v>
@@ -6412,22 +6414,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U28" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V28" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W28" t="n">
-        <v>680.2357481768456</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X28" t="n">
-        <v>446.1554259598287</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y28" t="n">
-        <v>223.043364776472</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="29">
@@ -6437,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2308.970930414981</v>
+        <v>1660.213721337995</v>
       </c>
       <c r="C29" t="n">
-        <v>1915.795428917911</v>
+        <v>1267.038219840925</v>
       </c>
       <c r="D29" t="n">
-        <v>1757.180013910635</v>
+        <v>881.5970910575932</v>
       </c>
       <c r="E29" t="n">
-        <v>1354.596489027179</v>
+        <v>479.0135661741377</v>
       </c>
       <c r="F29" t="n">
-        <v>937.702050557157</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G29" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H29" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6485,28 +6487,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="U29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="V29" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="W29" t="n">
-        <v>3105.956385205776</v>
+        <v>2846.651781195734</v>
       </c>
       <c r="X29" t="n">
-        <v>3105.956385205776</v>
+        <v>2457.199176128791</v>
       </c>
       <c r="Y29" t="n">
-        <v>2709.465676126377</v>
+        <v>2060.708467049392</v>
       </c>
     </row>
     <row r="30">
@@ -6540,22 +6542,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J30" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K30" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>174.7633905351325</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M30" t="n">
-        <v>802.5350401618138</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N30" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O30" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P30" t="n">
         <v>2380.454662679751</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2920.748366514475</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="C31" t="n">
-        <v>2750.543248580464</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="D31" t="n">
-        <v>2594.910135482979</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="E31" t="n">
-        <v>2439.351323342181</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="F31" t="n">
-        <v>2359.98791370273</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="G31" t="n">
-        <v>2359.98791370273</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="H31" t="n">
-        <v>2204.509362664224</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="I31" t="n">
         <v>2204.509362664224</v>
@@ -6658,13 +6660,13 @@
         <v>3105.956385205776</v>
       </c>
       <c r="W31" t="n">
-        <v>3105.956385205776</v>
+        <v>2980.004190118821</v>
       </c>
       <c r="X31" t="n">
-        <v>3105.956385205776</v>
+        <v>2745.923867901804</v>
       </c>
       <c r="Y31" t="n">
-        <v>3105.956385205776</v>
+        <v>2522.811806718447</v>
       </c>
     </row>
     <row r="32">
@@ -6674,16 +6676,16 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>840.7357579845172</v>
+        <v>1548.519290316325</v>
       </c>
       <c r="C32" t="n">
-        <v>447.5602564874478</v>
+        <v>1155.343788819255</v>
       </c>
       <c r="D32" t="n">
-        <v>62.11912770411553</v>
+        <v>769.902660035923</v>
       </c>
       <c r="E32" t="n">
-        <v>62.11912770411553</v>
+        <v>367.3191351524675</v>
       </c>
       <c r="F32" t="n">
         <v>62.11912770411553</v>
@@ -6728,22 +6730,22 @@
         <v>3105.956385205776</v>
       </c>
       <c r="T32" t="n">
-        <v>2996.032391735851</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U32" t="n">
-        <v>2740.27966217045</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V32" t="n">
-        <v>2398.172852873969</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W32" t="n">
-        <v>2027.173817842256</v>
+        <v>2734.957350174064</v>
       </c>
       <c r="X32" t="n">
-        <v>1637.721212775313</v>
+        <v>2345.50474510712</v>
       </c>
       <c r="Y32" t="n">
-        <v>1241.230503695914</v>
+        <v>1949.014036027722</v>
       </c>
     </row>
     <row r="33">
@@ -6780,19 +6782,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K33" t="n">
-        <v>381.858273766342</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L33" t="n">
-        <v>865.4243596646552</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M33" t="n">
-        <v>865.4243596646552</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N33" t="n">
-        <v>1458.313011372373</v>
+        <v>1829.234834439669</v>
       </c>
       <c r="O33" t="n">
-        <v>1974.833293963354</v>
+        <v>2345.75511703065</v>
       </c>
       <c r="P33" t="n">
         <v>2380.454662679751</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>223.043364776472</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="C34" t="n">
-        <v>223.043364776472</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="D34" t="n">
-        <v>223.043364776472</v>
+        <v>2974.221139894031</v>
       </c>
       <c r="E34" t="n">
-        <v>223.043364776472</v>
+        <v>2818.662327753234</v>
       </c>
       <c r="F34" t="n">
-        <v>223.043364776472</v>
+        <v>2661.336392966206</v>
       </c>
       <c r="G34" t="n">
-        <v>223.043364776472</v>
+        <v>2493.082339065652</v>
       </c>
       <c r="H34" t="n">
-        <v>195.2135530670377</v>
+        <v>2337.603788027146</v>
       </c>
       <c r="I34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="J34" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K34" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L34" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M34" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N34" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O34" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P34" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V34" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W34" t="n">
-        <v>680.2357481768456</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X34" t="n">
-        <v>446.1554259598287</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y34" t="n">
-        <v>223.043364776472</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>727.1591490138585</v>
+        <v>1243.319282867973</v>
       </c>
       <c r="C35" t="n">
-        <v>727.1591490138585</v>
+        <v>850.1437813709033</v>
       </c>
       <c r="D35" t="n">
-        <v>727.1591490138585</v>
+        <v>464.702652587571</v>
       </c>
       <c r="E35" t="n">
-        <v>727.1591490138585</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F35" t="n">
-        <v>727.1591490138585</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G35" t="n">
-        <v>313.9963935018616</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H35" t="n">
         <v>62.11912770411553</v>
@@ -6962,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3105.956385205776</v>
+        <v>3027.616881587594</v>
       </c>
       <c r="T35" t="n">
-        <v>2882.455782765193</v>
+        <v>3027.616881587594</v>
       </c>
       <c r="U35" t="n">
-        <v>2626.703053199792</v>
+        <v>2771.864152022193</v>
       </c>
       <c r="V35" t="n">
-        <v>2284.59624390331</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="W35" t="n">
-        <v>1913.597208871598</v>
+        <v>2429.757342725712</v>
       </c>
       <c r="X35" t="n">
-        <v>1524.144603804654</v>
+        <v>2040.304737658769</v>
       </c>
       <c r="Y35" t="n">
-        <v>1127.653894725255</v>
+        <v>1643.81402857937</v>
       </c>
     </row>
     <row r="36">
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1586.986833370171</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C36" t="n">
-        <v>1436.332602930263</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D36" t="n">
-        <v>1306.243635551744</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E36" t="n">
-        <v>1169.797144662632</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F36" t="n">
-        <v>1045.365338545763</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G36" t="n">
-        <v>925.3055206176277</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H36" t="n">
-        <v>837.0081042182287</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I36" t="n">
-        <v>787.6208502301403</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>787.6208502301403</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>787.6208502301403</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>1271.186936128453</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M36" t="n">
-        <v>1898.958585755135</v>
+        <v>1122.744905612751</v>
       </c>
       <c r="N36" t="n">
-        <v>2554.736556965694</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O36" t="n">
-        <v>3071.256839556675</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P36" t="n">
-        <v>3105.956385205776</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q36" t="n">
-        <v>3105.956385205776</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R36" t="n">
-        <v>3082.039342103841</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S36" t="n">
-        <v>2947.10866500371</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T36" t="n">
-        <v>2770.124853202618</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U36" t="n">
-        <v>2560.06170988126</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V36" t="n">
-        <v>2337.521708252327</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W36" t="n">
-        <v>2107.404462385613</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X36" t="n">
-        <v>1918.097384735625</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y36" t="n">
-        <v>1738.783167811132</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="37">
@@ -7069,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="C37" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="D37" t="n">
-        <v>62.11912770411553</v>
+        <v>831.8309049339227</v>
       </c>
       <c r="E37" t="n">
-        <v>62.11912770411553</v>
+        <v>676.2720927931252</v>
       </c>
       <c r="F37" t="n">
-        <v>62.11912770411553</v>
+        <v>518.9461580060981</v>
       </c>
       <c r="G37" t="n">
-        <v>62.11912770411553</v>
+        <v>350.6921041055436</v>
       </c>
       <c r="H37" t="n">
-        <v>62.11912770411553</v>
+        <v>195.2135530670377</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7123,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>727.847098413902</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U37" t="n">
-        <v>442.408306655803</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="V37" t="n">
-        <v>176.4289614766272</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="W37" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="X37" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.11912770411553</v>
+        <v>963.5661502456679</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2397.459527283501</v>
+        <v>2319.451518626845</v>
       </c>
       <c r="C38" t="n">
-        <v>2004.284025786432</v>
+        <v>2142.621142693967</v>
       </c>
       <c r="D38" t="n">
-        <v>1618.8428970031</v>
+        <v>1757.180013910635</v>
       </c>
       <c r="E38" t="n">
-        <v>1216.259372119644</v>
+        <v>1354.596489027179</v>
       </c>
       <c r="F38" t="n">
-        <v>799.3649336496217</v>
+        <v>937.702050557157</v>
       </c>
       <c r="G38" t="n">
-        <v>386.2021781376249</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H38" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7196,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3067.963471491298</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S38" t="n">
-        <v>3053.707002560299</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T38" t="n">
-        <v>3053.707002560299</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U38" t="n">
-        <v>2797.954272994898</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="V38" t="n">
-        <v>2797.954272994898</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="W38" t="n">
-        <v>2797.954272994898</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="X38" t="n">
-        <v>2797.954272994898</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="Y38" t="n">
-        <v>2797.954272994898</v>
+        <v>2319.451518626845</v>
       </c>
     </row>
     <row r="39">
@@ -7251,22 +7253,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="K39" t="n">
-        <v>62.11912770411553</v>
+        <v>96.81867335321709</v>
       </c>
       <c r="L39" t="n">
-        <v>545.6852136024288</v>
+        <v>580.3847592515303</v>
       </c>
       <c r="M39" t="n">
-        <v>1173.45686322911</v>
+        <v>1208.156408878212</v>
       </c>
       <c r="N39" t="n">
-        <v>1829.234834439669</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O39" t="n">
-        <v>2345.75511703065</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P39" t="n">
         <v>2380.454662679751</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>230.37318160467</v>
+        <v>2920.748366514475</v>
       </c>
       <c r="C40" t="n">
-        <v>230.37318160467</v>
+        <v>2750.543248580464</v>
       </c>
       <c r="D40" t="n">
-        <v>230.37318160467</v>
+        <v>2594.910135482979</v>
       </c>
       <c r="E40" t="n">
-        <v>230.37318160467</v>
+        <v>2439.351323342181</v>
       </c>
       <c r="F40" t="n">
-        <v>230.37318160467</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="G40" t="n">
-        <v>62.11912770411553</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="H40" t="n">
-        <v>62.11912770411553</v>
+        <v>2367.982058201044</v>
       </c>
       <c r="I40" t="n">
-        <v>62.11912770411553</v>
+        <v>2234.887632838122</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>2204.509362664224</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>2286.344403774166</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>2450.472043647965</v>
       </c>
       <c r="M40" t="n">
-        <v>494.3733870261212</v>
+        <v>2636.763621986229</v>
       </c>
       <c r="N40" t="n">
-        <v>677.5630210573304</v>
+        <v>2819.953256017438</v>
       </c>
       <c r="O40" t="n">
-        <v>840.2677880990384</v>
+        <v>2982.658023059147</v>
       </c>
       <c r="P40" t="n">
-        <v>960.1439538756169</v>
+        <v>3102.534188835725</v>
       </c>
       <c r="Q40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R40" t="n">
-        <v>963.5661502456679</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S40" t="n">
-        <v>760.7500664282172</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T40" t="n">
-        <v>525.0310145964513</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U40" t="n">
-        <v>239.5922228383523</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V40" t="n">
-        <v>230.37318160467</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W40" t="n">
-        <v>230.37318160467</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X40" t="n">
-        <v>230.37318160467</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="Y40" t="n">
-        <v>230.37318160467</v>
+        <v>3105.956385205776</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1330.877552054226</v>
+        <v>1918.956772915447</v>
       </c>
       <c r="C41" t="n">
-        <v>937.702050557157</v>
+        <v>1525.781271418377</v>
       </c>
       <c r="D41" t="n">
-        <v>937.702050557157</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E41" t="n">
-        <v>937.702050557157</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F41" t="n">
-        <v>937.702050557157</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G41" t="n">
-        <v>524.5392950451601</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H41" t="n">
         <v>200.4562446116507</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.1191277041155</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7424,37 +7426,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933306</v>
+        <v>2572.923332933305</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205775</v>
       </c>
       <c r="S41" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146826</v>
       </c>
       <c r="T41" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="U41" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="V41" t="n">
-        <v>2888.314646943678</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="W41" t="n">
-        <v>2517.315611911966</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="X41" t="n">
-        <v>2127.863006845022</v>
+        <v>2715.942227706243</v>
       </c>
       <c r="Y41" t="n">
-        <v>1731.372297765623</v>
+        <v>2319.451518626844</v>
       </c>
     </row>
     <row r="42">
@@ -7473,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366068</v>
+        <v>444.2954221366067</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197386</v>
+        <v>319.8636160197385</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7485,25 +7487,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="L42" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M42" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N42" t="n">
-        <v>1829.234834439669</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O42" t="n">
-        <v>2345.75511703065</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P42" t="n">
         <v>2380.454662679751</v>
@@ -7543,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878572</v>
+        <v>308.0818086878571</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261212</v>
+        <v>494.3733870261211</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7591,28 +7593,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R43" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T43" t="n">
-        <v>636.8490770607943</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U43" t="n">
-        <v>636.8490770607943</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V43" t="n">
-        <v>636.8490770607943</v>
+        <v>442.408306655803</v>
       </c>
       <c r="W43" t="n">
-        <v>519.3115111044891</v>
+        <v>159.0779045869806</v>
       </c>
       <c r="X43" t="n">
-        <v>285.2311888874722</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411551</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2071.902861797301</v>
+        <v>1919.518325348037</v>
       </c>
       <c r="C44" t="n">
-        <v>1678.727360300231</v>
+        <v>1526.342823850968</v>
       </c>
       <c r="D44" t="n">
-        <v>1293.286231516899</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>890.7027066334435</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F44" t="n">
-        <v>473.8082681634213</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>60.64551265142444</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="H44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="I44" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411551</v>
       </c>
       <c r="J44" t="n">
-        <v>47.31297010154361</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K44" t="n">
-        <v>358.4764287842802</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L44" t="n">
-        <v>851.7967205028091</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M44" t="n">
-        <v>1397.79762054739</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N44" t="n">
-        <v>1925.608904184852</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O44" t="n">
-        <v>2365.64850507718</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P44" t="n">
-        <v>2365.64850507718</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q44" t="n">
-        <v>2365.64850507718</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="T44" t="n">
-        <v>2327.655591362702</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="U44" t="n">
-        <v>2071.902861797301</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="V44" t="n">
-        <v>2071.902861797301</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="W44" t="n">
-        <v>2071.902861797301</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="X44" t="n">
-        <v>2071.902861797301</v>
+        <v>2716.503780138833</v>
       </c>
       <c r="Y44" t="n">
-        <v>2071.902861797301</v>
+        <v>2320.013071059434</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>846.6789532415753</v>
+        <v>861.4851108441464</v>
       </c>
       <c r="C45" t="n">
-        <v>696.0247228016675</v>
+        <v>710.8308804042387</v>
       </c>
       <c r="D45" t="n">
-        <v>565.9357554231478</v>
+        <v>580.741913025719</v>
       </c>
       <c r="E45" t="n">
-        <v>429.4892645340356</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F45" t="n">
-        <v>305.0574584171674</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G45" t="n">
-        <v>184.9976404890318</v>
+        <v>199.803798091603</v>
       </c>
       <c r="H45" t="n">
-        <v>96.70022408963275</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K45" t="n">
-        <v>367.0521161637701</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>850.6182020620834</v>
+        <v>545.6852136024288</v>
       </c>
       <c r="M45" t="n">
-        <v>1436.116207068686</v>
+        <v>1173.45686322911</v>
       </c>
       <c r="N45" t="n">
-        <v>1436.116207068686</v>
+        <v>1458.313011372373</v>
       </c>
       <c r="O45" t="n">
-        <v>1952.636489659666</v>
+        <v>1974.833293963354</v>
       </c>
       <c r="P45" t="n">
-        <v>2358.257858376064</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q45" t="n">
-        <v>2365.64850507718</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="R45" t="n">
-        <v>2341.731461975245</v>
+        <v>2356.537619577816</v>
       </c>
       <c r="S45" t="n">
-        <v>2206.800784875114</v>
+        <v>2221.606942477685</v>
       </c>
       <c r="T45" t="n">
-        <v>2029.816973074022</v>
+        <v>2044.623130676593</v>
       </c>
       <c r="U45" t="n">
-        <v>1819.753829752664</v>
+        <v>1834.559987355235</v>
       </c>
       <c r="V45" t="n">
-        <v>1597.213828123731</v>
+        <v>1612.019985726302</v>
       </c>
       <c r="W45" t="n">
-        <v>1367.096582257018</v>
+        <v>1381.902739859589</v>
       </c>
       <c r="X45" t="n">
-        <v>1177.789504607029</v>
+        <v>1192.595662209601</v>
       </c>
       <c r="Y45" t="n">
-        <v>998.4752876825366</v>
+        <v>1013.281445285108</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>528.7100132738371</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C46" t="n">
-        <v>358.5048953398264</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D46" t="n">
-        <v>202.8717822423411</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J46" t="n">
-        <v>47.31297010154361</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>129.1480112114855</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>293.2756510852853</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>479.5672294235493</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>662.7568634547586</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>825.4616304964666</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P46" t="n">
-        <v>945.3377962730451</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>948.7599926430961</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U46" t="n">
-        <v>948.7599926430961</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V46" t="n">
-        <v>948.7599926430961</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W46" t="n">
-        <v>948.7599926430961</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X46" t="n">
-        <v>937.0300931484951</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="Y46" t="n">
-        <v>713.9180319651384</v>
+        <v>128.8176112395708</v>
       </c>
     </row>
   </sheetData>
@@ -7976,22 +7978,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K2" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>651.5514946987026</v>
+        <v>427.4407941030111</v>
       </c>
       <c r="M2" t="n">
         <v>701.2411122488187</v>
       </c>
       <c r="N2" t="n">
-        <v>149.1184913377841</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O2" t="n">
-        <v>394.3609707612346</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
         <v>502.0059847475129</v>
@@ -8055,28 +8057,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N3" t="n">
-        <v>614.575071735073</v>
+        <v>553.2668652653155</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P3" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8216,7 +8218,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>270.6522400901343</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
@@ -8228,13 +8230,13 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>545.7463662600587</v>
       </c>
       <c r="P5" t="n">
         <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8292,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K6" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N6" t="n">
-        <v>553.2668652653151</v>
+        <v>415.8062469585524</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8313,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8458,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>251.5450406822908</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8467,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>545.7463662600596</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>144.4986984183922</v>
@@ -8529,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K9" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>351.5705978518757</v>
       </c>
       <c r="N9" t="n">
-        <v>301.5486891608486</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8550,7 +8552,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8690,7 +8692,7 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K11" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L11" t="n">
         <v>651.5514946987026</v>
@@ -8699,7 +8701,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N11" t="n">
-        <v>633.9592855728719</v>
+        <v>682.2612020826953</v>
       </c>
       <c r="O11" t="n">
         <v>594.0482827698827</v>
@@ -8769,25 +8771,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K12" t="n">
-        <v>238.3374974274122</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>683.7992483186069</v>
+        <v>454.5321323046925</v>
       </c>
       <c r="N12" t="n">
-        <v>676.7842391234617</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931373</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R12" t="n">
         <v>71.01380490566048</v>
@@ -8924,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>457.3649271011926</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -8939,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>399.6354845339704</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9012,19 +9014,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186069</v>
+        <v>683.7992483186067</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234617</v>
+        <v>676.7842391234615</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>235.823926913393</v>
       </c>
       <c r="Q15" t="n">
-        <v>239.7287152499919</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9161,10 +9163,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K17" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L17" t="n">
         <v>651.5514946987026</v>
@@ -9179,10 +9181,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P17" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R17" t="n">
         <v>102.5176150018526</v>
@@ -9249,19 +9251,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>676.7842391234617</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>235.8239269133934</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591307</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9477,19 +9479,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>196.7020151310378</v>
+        <v>82.44445733333335</v>
       </c>
       <c r="K21" t="n">
         <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M21" t="n">
-        <v>663.2434089132776</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9498,7 +9500,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q21" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R21" t="n">
         <v>71.01380490566048</v>
@@ -9890,7 +9892,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P26" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q26" t="n">
         <v>331.2113854294513</v>
@@ -10188,13 +10190,13 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>203.8424305246122</v>
+        <v>176.3345925796061</v>
       </c>
       <c r="M30" t="n">
         <v>726.4998994499999</v>
@@ -10206,7 +10208,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q30" t="n">
         <v>90.98815315591399</v>
@@ -10428,22 +10430,22 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K33" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>684.2495388215582</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>496.801919078302</v>
+        <v>122.133410929518</v>
       </c>
       <c r="Q33" t="n">
         <v>90.98815315591399</v>
@@ -10601,7 +10603,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475129</v>
+        <v>502.0059847475131</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10662,28 +10664,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M36" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>187.5973797276328</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>122.1334109295184</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10899,7 +10901,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>117.494503443537</v>
       </c>
       <c r="K39" t="n">
         <v>89.59693533333335</v>
@@ -10917,7 +10919,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>122.133410929518</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q39" t="n">
         <v>90.98815315591399</v>
@@ -11142,7 +11144,7 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L42" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11154,7 +11156,7 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P42" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
         <v>90.98815315591399</v>
@@ -11294,10 +11296,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K44" t="n">
-        <v>457.3649271011935</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L44" t="n">
         <v>651.5514946987026</v>
@@ -11312,10 +11314,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P44" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R44" t="n">
         <v>102.5176150018526</v>
@@ -11376,16 +11378,16 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>683.7992483186069</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>85.37211285416666</v>
+        <v>373.1055958271594</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -11394,7 +11396,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q45" t="n">
-        <v>98.45345285401153</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R45" t="n">
         <v>71.01380490566048</v>
@@ -22544,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>398.5576896346209</v>
+        <v>71.73477754081148</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>21.66461572265814</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,7 +22594,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -22607,13 +22609,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -22711,22 +22713,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22753,16 +22755,16 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>210.2831670182382</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
         <v>280.4970980481341</v>
@@ -22781,10 +22783,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
         <v>381.5867174954989</v>
@@ -22796,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>130.1027441152504</v>
+        <v>100.2917482183657</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22829,13 +22831,13 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
@@ -22847,7 +22849,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -22987,28 +22989,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>116.9996710167059</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -23018,16 +23020,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
@@ -23036,7 +23038,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23066,19 +23068,19 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>212.0596043760352</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>262.3184882898124</v>
       </c>
     </row>
     <row r="9">
@@ -23197,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>108.8015838723061</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23233,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>78.7270964001471</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
@@ -23255,13 +23257,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>17.54100829227446</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>398.5576896346209</v>
@@ -23270,10 +23272,10 @@
         <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23309,22 +23311,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>221.2655964161775</v>
+        <v>18.69817212721097</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -23416,7 +23418,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C13" t="n">
-        <v>102.4715680545699</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D13" t="n">
         <v>154.0767819665104</v>
@@ -23425,19 +23427,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>155.7526754391568</v>
+        <v>69.10327304716648</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23492,25 +23494,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D14" t="n">
-        <v>48.80965324550004</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23546,22 +23548,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T14" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>0.7148318472824826</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="15">
@@ -23650,31 +23652,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D16" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>154.0032240193895</v>
+        <v>22.31857408727987</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>47.66682985527021</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23698,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
         <v>233.3618613134482</v>
@@ -23719,7 +23721,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="17">
@@ -23729,7 +23731,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>389.2437464820987</v>
@@ -23750,7 +23752,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,13 +23779,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>253.1952022697474</v>
@@ -23798,7 +23800,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>20.11687146421758</v>
+        <v>259.0407106580674</v>
       </c>
     </row>
     <row r="18">
@@ -23935,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>225.8383710203869</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23966,10 +23968,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>208.8877358363874</v>
+        <v>40.05078103332818</v>
       </c>
       <c r="C20" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23978,7 +23980,7 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>409.0311279568768</v>
@@ -23987,7 +23989,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,7 +24016,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -24029,13 +24031,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="21">
@@ -24130,13 +24132,13 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>155.7526754391568</v>
+        <v>144.1400749395023</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
@@ -24178,22 +24180,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>255.8698161450218</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24254,25 +24256,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>197.3900415692469</v>
       </c>
       <c r="Y23" t="n">
-        <v>232.7804606540265</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -24367,25 +24369,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004174</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24415,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>167.3303626133472</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24446,16 +24448,16 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>112.4408428809522</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>409.0311279568768</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="H26" t="n">
         <v>320.8422199291742</v>
@@ -24494,16 +24496,16 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -24601,7 +24603,7 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
-        <v>140.9515531623306</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
         <v>154.0767819665104</v>
@@ -24619,7 +24621,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J28" t="n">
         <v>30.07448747215907</v>
@@ -24652,22 +24654,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U28" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24683,7 +24685,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>224.5574566382955</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -24692,13 +24694,13 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,7 +24727,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>164.8484195083599</v>
@@ -24740,10 +24742,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>367.2890446813954</v>
+        <v>148.1904712887871</v>
       </c>
       <c r="X29" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -24838,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>77.18289989610007</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24898,13 +24900,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>155.8044249120484</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -24923,10 +24925,10 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>412.725494085322</v>
+        <v>110.5774867114536</v>
       </c>
       <c r="G32" t="n">
         <v>409.0311279568768</v>
@@ -24968,13 +24970,13 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>112.4408428809519</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -25078,19 +25080,19 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D34" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788232</v>
       </c>
       <c r="E34" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>126.3722519357809</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25135,13 +25137,13 @@
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="35">
@@ -25154,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>71.48372678940561</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
         <v>136.9537457384598</v>
@@ -25202,10 +25204,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>164.8484195083599</v>
+        <v>87.29231092635989</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -25214,7 +25216,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25315,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>23.65888910788266</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25363,16 +25365,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>167.3303626133476</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
@@ -25388,10 +25390,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>214.1816743085501</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -25409,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>150.7345152666711</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25457,7 +25459,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y38" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -25546,31 +25548,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>155.7526754391568</v>
+        <v>85.09710294943157</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H40" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25597,16 +25599,16 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
-        <v>254.1927009060386</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
         <v>280.4970980481341</v>
@@ -25631,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>381.5867174954989</v>
+        <v>289.8292526336597</v>
       </c>
       <c r="E41" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25676,22 +25678,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V41" t="n">
-        <v>123.2204203240398</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25831,28 +25833,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T43" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W43" t="n">
-        <v>164.134907751392</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="44">
@@ -25862,13 +25864,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>152.3195699869353</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -25880,7 +25882,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>307.6430028047922</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I44" t="n">
         <v>136.9537457384598</v>
@@ -25910,7 +25912,7 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
         <v>164.8484195083599</v>
@@ -25919,7 +25921,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V44" t="n">
         <v>338.6857412035168</v>
@@ -25928,10 +25930,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>117.3244398042876</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F46" t="n">
         <v>155.7526754391568</v>
@@ -26077,19 +26079,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U46" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>220.1269184951917</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
   </sheetData>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621571.6241916667</v>
+        <v>621571.6241916663</v>
       </c>
     </row>
     <row r="3">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621571.6241916668</v>
+        <v>621571.6241916663</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621571.624191666</v>
+        <v>621571.6241916665</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>621571.6241916667</v>
+        <v>700270.7884920278</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700270.7884920283</v>
+        <v>700270.7884920279</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>700270.7884920281</v>
+        <v>700270.788492028</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700270.7884920281</v>
+        <v>700270.788492028</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>700270.7884920283</v>
+        <v>700270.788492028</v>
       </c>
     </row>
     <row r="13">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700270.7884920279</v>
+        <v>700270.7884920278</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>621571.6241916661</v>
+        <v>700270.788492028</v>
       </c>
     </row>
   </sheetData>
@@ -26311,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>203273.2178484351</v>
+      </c>
+      <c r="C2" t="n">
         <v>203273.217848435</v>
       </c>
-      <c r="C2" t="n">
-        <v>203273.2178484351</v>
-      </c>
       <c r="D2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="E2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="F2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="G2" t="n">
-        <v>203273.2178484351</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="H2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="I2" t="n">
         <v>229000.8148323085</v>
       </c>
       <c r="J2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323085</v>
       </c>
       <c r="K2" t="n">
         <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
+        <v>229000.8148323084</v>
+      </c>
+      <c r="M2" t="n">
         <v>229000.8148323085</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
+        <v>229000.8148323085</v>
+      </c>
+      <c r="O2" t="n">
+        <v>229000.8148323083</v>
+      </c>
+      <c r="P2" t="n">
         <v>229000.8148323084</v>
-      </c>
-      <c r="N2" t="n">
-        <v>229000.8148323084</v>
-      </c>
-      <c r="O2" t="n">
-        <v>229000.8148323084</v>
-      </c>
-      <c r="P2" t="n">
-        <v>203273.217848435</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.805991745</v>
+        <v>198195.8059917449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,10 +26380,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>50726.82133126163</v>
       </c>
       <c r="H3" t="n">
-        <v>49935.4322074041</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26402,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>44538.95791520669</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,22 +26417,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.204443371</v>
       </c>
       <c r="C4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="D4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="E4" t="n">
-        <v>34799.20444337102</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="F4" t="n">
         <v>34799.20444337101</v>
       </c>
       <c r="G4" t="n">
-        <v>34799.20444337101</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="H4" t="n">
         <v>39261.69958392654</v>
@@ -26457,7 +26459,7 @@
         <v>39261.69958392654</v>
       </c>
       <c r="P4" t="n">
-        <v>34799.20444337102</v>
+        <v>39261.69958392654</v>
       </c>
     </row>
     <row r="5">
@@ -26467,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717315</v>
+        <v>69585.45727717312</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717314</v>
+        <v>35957.85727717313</v>
       </c>
       <c r="G5" t="n">
-        <v>35957.85727717314</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512778</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
@@ -26506,10 +26508,10 @@
         <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
+        <v>47210.53705512778</v>
+      </c>
+      <c r="P5" t="n">
         <v>47210.5370551278</v>
-      </c>
-      <c r="P5" t="n">
-        <v>35957.85727717314</v>
       </c>
     </row>
     <row r="6">
@@ -26519,13 +26521,13 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99307.24986385409</v>
+        <v>-99307.24986385391</v>
       </c>
       <c r="C6" t="n">
-        <v>98888.55612789094</v>
+        <v>98888.55612789089</v>
       </c>
       <c r="D6" t="n">
-        <v>98888.55612789094</v>
+        <v>98888.55612789086</v>
       </c>
       <c r="E6" t="n">
         <v>132516.1561278909</v>
@@ -26534,34 +26536,34 @@
         <v>132516.1561278909</v>
       </c>
       <c r="G6" t="n">
-        <v>132516.156127891</v>
+        <v>91801.75686199241</v>
       </c>
       <c r="H6" t="n">
-        <v>92593.14598585002</v>
+        <v>142528.5781932542</v>
       </c>
       <c r="I6" t="n">
-        <v>142528.5781932542</v>
+        <v>142528.5781932541</v>
       </c>
       <c r="J6" t="n">
-        <v>-12210.85617234935</v>
+        <v>-12210.85617234924</v>
       </c>
       <c r="K6" t="n">
         <v>142528.5781932541</v>
       </c>
       <c r="L6" t="n">
+        <v>142528.5781932541</v>
+      </c>
+      <c r="M6" t="n">
         <v>142528.5781932542</v>
-      </c>
-      <c r="M6" t="n">
-        <v>142528.5781932541</v>
       </c>
       <c r="N6" t="n">
         <v>142528.5781932541</v>
       </c>
       <c r="O6" t="n">
+        <v>97989.62027804731</v>
+      </c>
+      <c r="P6" t="n">
         <v>142528.5781932541</v>
-      </c>
-      <c r="P6" t="n">
-        <v>132516.1561278909</v>
       </c>
     </row>
   </sheetData>
@@ -26787,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="G4" t="n">
-        <v>591.4121262692951</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014439</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26826,10 +26828,10 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
+        <v>776.4890963014439</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>591.4121262692951</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27024,31 +27026,31 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>591.4121262692948</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>185.076970032149</v>
-      </c>
-      <c r="I4" t="n">
-        <v>0</v>
-      </c>
-      <c r="J4" t="n">
-        <v>591.4121262692951</v>
-      </c>
-      <c r="K4" t="n">
-        <v>0</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27270,10 +27272,10 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>185.0769700321492</v>
       </c>
       <c r="P4" t="n">
-        <v>185.076970032149</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -34696,22 +34698,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>498.303324968211</v>
+        <v>274.1926243725193</v>
       </c>
       <c r="M2" t="n">
         <v>551.5160606510915</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O2" t="n">
-        <v>244.7971333371383</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
         <v>351.7045375065877</v>
@@ -34775,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N3" t="n">
-        <v>529.2029588809064</v>
+        <v>467.8947524111488</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P3" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34936,7 +34938,7 @@
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>127.5938369108969</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
@@ -34948,13 +34950,13 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>396.1825288359623</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N6" t="n">
-        <v>467.8947524111484</v>
+        <v>330.4341341043857</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35033,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35178,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>98.29687095179912</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35187,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>396.1825288359632</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35249,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>259.1834758025638</v>
       </c>
       <c r="N9" t="n">
-        <v>216.1765763066819</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35270,7 +35272,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L11" t="n">
         <v>498.303324968211</v>
@@ -35419,7 +35421,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N11" t="n">
-        <v>484.8407942350878</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O11" t="n">
         <v>444.4844453457863</v>
@@ -35489,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>148.7405620940789</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>591.4121262692951</v>
+        <v>362.1450102553806</v>
       </c>
       <c r="N12" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P12" t="n">
-        <v>-9.186815169423518e-13</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35644,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>314.3065239219553</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35659,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>250.071647109874</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35732,19 +35734,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692951</v>
+        <v>591.4121262692948</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>148.7405620940783</v>
       </c>
       <c r="Q15" t="n">
-        <v>148.7405620940779</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35881,10 +35883,10 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K17" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L17" t="n">
         <v>498.303324968211</v>
@@ -35899,10 +35901,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q17" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35969,16 +35971,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N18" t="n">
-        <v>591.4121262692951</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>148.7405620940788</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -36197,19 +36199,19 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>114.2575577977044</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M21" t="n">
-        <v>570.8562868639657</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36218,7 +36220,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q21" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36610,7 +36612,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
@@ -36835,7 +36837,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L29" t="n">
-        <v>498.3033249682109</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M29" t="n">
         <v>551.5160606510915</v>
@@ -36908,13 +36910,13 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>113.782083667694</v>
+        <v>86.27424572268784</v>
       </c>
       <c r="M30" t="n">
         <v>634.1127774006881</v>
@@ -36926,7 +36928,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -37148,22 +37150,22 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>598.8774259673916</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>409.7185542589873</v>
+        <v>35.05004611020335</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37321,7 +37323,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065877</v>
+        <v>351.7045375065879</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37382,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>102.2252668734662</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>35.0500461102038</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>35.0500461102036</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>35.05004611020335</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37862,7 +37864,7 @@
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
@@ -37874,7 +37876,7 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P42" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38014,10 +38016,10 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K44" t="n">
-        <v>314.3065239219562</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L44" t="n">
         <v>498.303324968211</v>
@@ -38032,10 +38034,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38096,16 +38098,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>591.4121262692951</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>287.7334829729927</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38114,7 +38116,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q45" t="n">
-        <v>7.465299698097541</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_18.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>756008.2473040161</v>
+        <v>750770.784923174</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2396483.305182807</v>
+        <v>2396483.305182806</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>8681080.949752063</v>
+        <v>8681080.949752061</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7732948.326292342</v>
+        <v>7732948.326292343</v>
       </c>
     </row>
     <row r="11">
@@ -661,13 +661,13 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>326.8229120938094</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>136.9537457384598</v>
@@ -706,28 +706,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>72.99328173037981</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -819,28 +819,28 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,22 +864,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>6.771201706303562</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>268.3975428804966</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -910,7 +910,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>308.7393797385112</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,22 +943,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1116,7 +1116,7 @@
         <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>113.1667354347867</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1141,13 +1141,13 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>164.8484195083599</v>
@@ -1189,19 +1189,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>130.2073136987925</v>
+        <v>292.23405377024</v>
       </c>
     </row>
     <row r="9">
@@ -1311,10 +1311,10 @@
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>22.96189723698674</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -1350,10 +1350,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
         <v>389.2437464820987</v>
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G11" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,22 +1420,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T11" t="n">
-        <v>202.5674242889665</v>
+        <v>164.6999247840441</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1539,19 +1539,19 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>86.64940239199029</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>113.1667354347866</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -1624,7 +1624,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1663,7 +1663,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>338.6857412035168</v>
@@ -1672,10 +1672,10 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
-        <v>384.8432471689912</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>163.8331814790099</v>
       </c>
     </row>
     <row r="15">
@@ -1773,22 +1773,22 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>131.6846499321096</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D17" t="n">
-        <v>381.5867174954989</v>
+        <v>115.1646337849141</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I17" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>133.4850913305375</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="18">
@@ -2049,25 +2049,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U19" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W19" t="n">
-        <v>54.65872702774727</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>356.4390172209547</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>389.2437464820987</v>
@@ -2092,16 +2092,16 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>153.2711333470681</v>
       </c>
       <c r="H20" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I20" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2143,10 +2143,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>11.61260049965443</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,25 +2289,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>21.7745986547734</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2323,22 +2323,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D23" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H23" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2374,7 +2374,7 @@
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0</v>
+        <v>229.2671475085639</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -2383,7 +2383,7 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>188.1680374470268</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y23" t="n">
         <v>392.5258019886049</v>
@@ -2481,25 +2481,25 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2529,16 +2529,16 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2554,7 +2554,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>396.4897982542829</v>
+        <v>53.93037218594163</v>
       </c>
       <c r="C26" t="n">
         <v>389.2437464820987</v>
@@ -2563,19 +2563,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>256.7115579699416</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,25 +2605,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V26" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X26" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y26" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2766,7 +2766,7 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>66.03149870010068</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>282.5844038405181</v>
@@ -2778,7 +2778,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2797,13 +2797,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -2812,7 +2812,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>35.41582557562804</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>219.0985733926083</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2949,7 +2949,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3006,19 +3006,19 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>124.6926731360857</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
-        <v>231.7395189948467</v>
+        <v>66.03149870010071</v>
       </c>
       <c r="Y31" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3028,28 +3028,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F32" t="n">
-        <v>302.1480073738684</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3076,25 +3076,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>133.9032391359764</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W32" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3189,25 +3189,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>21.27104444158477</v>
       </c>
       <c r="D34" t="n">
-        <v>130.4178928586281</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E34" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F34" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3243,13 +3243,13 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>70.67263933058656</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,16 +3316,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>77.55610858200005</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U35" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
@@ -3334,7 +3334,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y35" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>157.6926523830313</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -3502,13 +3502,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C38" t="n">
-        <v>175.0620721735486</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>398.5576896346209</v>
@@ -3523,7 +3523,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I38" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3550,16 +3550,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S38" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>221.2655964161775</v>
+        <v>3.174819748582736</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -3660,19 +3660,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>70.6555724897252</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -3681,10 +3681,10 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3714,19 +3714,19 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>97.61153143263792</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3745,7 +3745,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D41" t="n">
-        <v>91.75746486183922</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>398.5576896346209</v>
@@ -3760,7 +3760,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T41" t="n">
-        <v>221.2655964161775</v>
+        <v>64.41872800020404</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,7 +3805,7 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3948,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>95.98918911403632</v>
       </c>
       <c r="T43" t="n">
         <v>233.3618613134482</v>
@@ -3963,7 +3963,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>95.98918911403644</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>66.03149870010071</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4188,7 +4188,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U46" t="n">
         <v>282.5844038405181</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1233.032792569768</v>
+        <v>588.2336118925343</v>
       </c>
       <c r="C2" t="n">
-        <v>839.8572910726987</v>
+        <v>588.2336118925343</v>
       </c>
       <c r="D2" t="n">
-        <v>839.8572910726987</v>
+        <v>588.2336118925343</v>
       </c>
       <c r="E2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="F2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="G2" t="n">
-        <v>509.7331374425881</v>
+        <v>185.6500870090788</v>
       </c>
       <c r="H2" t="n">
         <v>185.6500870090788</v>
       </c>
       <c r="I2" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J2" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K2" t="n">
-        <v>47.31297010154359</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L2" t="n">
-        <v>318.7636682303378</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M2" t="n">
-        <v>864.7645682749184</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="N2" t="n">
-        <v>1392.57585191238</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O2" t="n">
-        <v>1832.615452804709</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P2" t="n">
-        <v>2180.802944936231</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q2" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R2" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S2" t="n">
-        <v>2199.13495001823</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="T2" t="n">
-        <v>1975.634347577647</v>
+        <v>2104.154988922119</v>
       </c>
       <c r="U2" t="n">
-        <v>1975.634347577647</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="V2" t="n">
-        <v>1633.527538281165</v>
+        <v>1848.402259356717</v>
       </c>
       <c r="W2" t="n">
-        <v>1633.527538281165</v>
+        <v>1774.671671750273</v>
       </c>
       <c r="X2" t="n">
-        <v>1633.527538281165</v>
+        <v>1385.21906668333</v>
       </c>
       <c r="Y2" t="n">
-        <v>1633.527538281165</v>
+        <v>988.7283576039313</v>
       </c>
     </row>
     <row r="3">
@@ -4385,67 +4385,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>846.6789532415746</v>
+        <v>846.6789532415751</v>
       </c>
       <c r="C3" t="n">
-        <v>696.0247228016668</v>
+        <v>696.0247228016672</v>
       </c>
       <c r="D3" t="n">
-        <v>565.9357554231472</v>
+        <v>565.9357554231476</v>
       </c>
       <c r="E3" t="n">
-        <v>429.4892645340348</v>
+        <v>429.4892645340353</v>
       </c>
       <c r="F3" t="n">
-        <v>305.0574584171666</v>
+        <v>305.057458417167</v>
       </c>
       <c r="G3" t="n">
-        <v>184.9976404890311</v>
+        <v>184.9976404890315</v>
       </c>
       <c r="H3" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963223</v>
       </c>
       <c r="I3" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154367</v>
       </c>
       <c r="J3" t="n">
-        <v>160.427952321271</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K3" t="n">
-        <v>160.427952321271</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L3" t="n">
-        <v>160.427952321271</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M3" t="n">
-        <v>745.9259573278729</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="N3" t="n">
-        <v>1209.14176221491</v>
+        <v>1209.141762214911</v>
       </c>
       <c r="O3" t="n">
-        <v>1725.662044805891</v>
+        <v>1725.662044805892</v>
       </c>
       <c r="P3" t="n">
-        <v>2131.283413522289</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q3" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R3" t="n">
-        <v>2341.731461975244</v>
+        <v>2341.731461975245</v>
       </c>
       <c r="S3" t="n">
-        <v>2206.800784875113</v>
+        <v>2206.800784875114</v>
       </c>
       <c r="T3" t="n">
-        <v>2029.816973074021</v>
+        <v>2029.816973074022</v>
       </c>
       <c r="U3" t="n">
-        <v>1819.753829752663</v>
+        <v>1819.753829752664</v>
       </c>
       <c r="V3" t="n">
-        <v>1597.21382812373</v>
+        <v>1597.213828123731</v>
       </c>
       <c r="W3" t="n">
         <v>1367.096582257017</v>
@@ -4454,7 +4454,7 @@
         <v>1177.789504607029</v>
       </c>
       <c r="Y3" t="n">
-        <v>998.475287682536</v>
+        <v>998.4752876825364</v>
       </c>
     </row>
     <row r="4">
@@ -4464,37 +4464,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>824.8590032756731</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="C4" t="n">
-        <v>824.8590032756731</v>
+        <v>202.9460831990289</v>
       </c>
       <c r="D4" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E4" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F4" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G4" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H4" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I4" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J4" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K4" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L4" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M4" t="n">
         <v>479.5672294235493</v>
@@ -4512,28 +4512,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R4" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S4" t="n">
-        <v>824.8590032756731</v>
+        <v>941.9203949599612</v>
       </c>
       <c r="T4" t="n">
-        <v>824.8590032756731</v>
+        <v>941.9203949599612</v>
       </c>
       <c r="U4" t="n">
-        <v>824.8590032756731</v>
+        <v>656.4816032018621</v>
       </c>
       <c r="V4" t="n">
-        <v>824.8590032756731</v>
+        <v>656.4816032018621</v>
       </c>
       <c r="W4" t="n">
-        <v>824.8590032756731</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="X4" t="n">
-        <v>824.8590032756731</v>
+        <v>373.1512011330396</v>
       </c>
       <c r="Y4" t="n">
-        <v>824.8590032756731</v>
+        <v>373.1512011330396</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1178.648892786851</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="C5" t="n">
-        <v>1178.648892786851</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="D5" t="n">
-        <v>1178.648892786851</v>
+        <v>866.7909334550213</v>
       </c>
       <c r="E5" t="n">
-        <v>776.0653679033953</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F5" t="n">
-        <v>359.1709294333731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I5" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J5" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K5" t="n">
-        <v>406.2953261290054</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L5" t="n">
-        <v>899.6156178475343</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M5" t="n">
-        <v>1445.616517892115</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N5" t="n">
-        <v>1973.427801529577</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O5" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P5" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q5" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R5" t="n">
-        <v>2365.648505077179</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S5" t="n">
-        <v>2199.13495001823</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T5" t="n">
-        <v>1975.634347577647</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="U5" t="n">
-        <v>1975.634347577647</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="V5" t="n">
-        <v>1975.634347577647</v>
+        <v>1905.389306738351</v>
       </c>
       <c r="W5" t="n">
-        <v>1975.634347577647</v>
+        <v>1534.390271706639</v>
       </c>
       <c r="X5" t="n">
-        <v>1975.634347577647</v>
+        <v>1534.390271706639</v>
       </c>
       <c r="Y5" t="n">
-        <v>1579.143638498248</v>
+        <v>1137.89956262724</v>
       </c>
     </row>
     <row r="6">
@@ -4640,31 +4640,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H6" t="n">
-        <v>96.70022408963203</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I6" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J6" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K6" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L6" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M6" t="n">
-        <v>1116.377061006459</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N6" t="n">
-        <v>1443.506853769801</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O6" t="n">
-        <v>1960.027136360782</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P6" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q6" t="n">
         <v>2365.648505077179</v>
@@ -4701,37 +4701,37 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K7" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L7" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M7" t="n">
         <v>479.5672294235493</v>
@@ -4764,13 +4764,13 @@
         <v>161.6228038740554</v>
       </c>
       <c r="W7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y7" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="C8" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="D8" t="n">
-        <v>47.31297010154359</v>
+        <v>1279.953688967018</v>
       </c>
       <c r="E8" t="n">
-        <v>47.31297010154359</v>
+        <v>877.3701640835627</v>
       </c>
       <c r="F8" t="n">
-        <v>47.31297010154359</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J8" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K8" t="n">
-        <v>406.2953261290054</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="L8" t="n">
-        <v>503.6092283712866</v>
+        <v>540.6332618200724</v>
       </c>
       <c r="M8" t="n">
-        <v>1049.610128415867</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N8" t="n">
-        <v>1577.421412053329</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O8" t="n">
-        <v>2017.461012945658</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q8" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2327.655591362701</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2161.142036303752</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>1937.641433863168</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="U8" t="n">
-        <v>1681.888704297767</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="V8" t="n">
-        <v>1339.781895001286</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="W8" t="n">
-        <v>968.7828599695731</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="X8" t="n">
-        <v>579.3302549026299</v>
+        <v>1975.634347577648</v>
       </c>
       <c r="Y8" t="n">
-        <v>447.8077158129405</v>
+        <v>1680.448434678415</v>
       </c>
     </row>
     <row r="9">
@@ -4877,22 +4877,22 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H9" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I9" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>623.6437572083082</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N9" t="n">
         <v>1209.14176221491</v>
@@ -4938,37 +4938,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I10" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J10" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K10" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L10" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M10" t="n">
         <v>479.5672294235493</v>
@@ -4986,28 +4986,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R10" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S10" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T10" t="n">
-        <v>386.3238676264566</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U10" t="n">
-        <v>100.8850758683575</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V10" t="n">
-        <v>100.8850758683575</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y10" t="n">
-        <v>100.8850758683575</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1563.175406327452</v>
+        <v>1242.824038851968</v>
       </c>
       <c r="C11" t="n">
-        <v>1169.999904830382</v>
+        <v>849.6485373548981</v>
       </c>
       <c r="D11" t="n">
-        <v>784.5587760470498</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="E11" t="n">
-        <v>784.5587760470498</v>
+        <v>464.2074085715658</v>
       </c>
       <c r="F11" t="n">
-        <v>784.5587760470498</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G11" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I11" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J11" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K11" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L11" t="n">
-        <v>851.7967205028082</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="M11" t="n">
-        <v>1397.797620547389</v>
+        <v>864.7645682749193</v>
       </c>
       <c r="N11" t="n">
-        <v>1925.608904184851</v>
+        <v>1392.575851912381</v>
       </c>
       <c r="O11" t="n">
-        <v>2365.648505077179</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P11" t="n">
-        <v>2365.648505077179</v>
+        <v>2180.802944936232</v>
       </c>
       <c r="Q11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R11" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S11" t="n">
-        <v>2365.648505077179</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T11" t="n">
-        <v>2161.034945189334</v>
+        <v>2032.771389630308</v>
       </c>
       <c r="U11" t="n">
-        <v>1905.282215623933</v>
+        <v>2032.771389630308</v>
       </c>
       <c r="V11" t="n">
-        <v>1563.175406327452</v>
+        <v>2032.771389630308</v>
       </c>
       <c r="W11" t="n">
-        <v>1563.175406327452</v>
+        <v>2032.771389630308</v>
       </c>
       <c r="X11" t="n">
-        <v>1563.175406327452</v>
+        <v>1643.318784563364</v>
       </c>
       <c r="Y11" t="n">
-        <v>1563.175406327452</v>
+        <v>1643.318784563364</v>
       </c>
     </row>
     <row r="12">
@@ -5114,25 +5114,25 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H12" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I12" t="n">
-        <v>47.3129701015436</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J12" t="n">
-        <v>47.3129701015436</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K12" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L12" t="n">
-        <v>850.6182020620834</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M12" t="n">
-        <v>1209.14176221491</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="N12" t="n">
-        <v>1209.14176221491</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="O12" t="n">
         <v>1725.662044805891</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F13" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G13" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H13" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I13" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J13" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K13" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L13" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M13" t="n">
         <v>479.5672294235493</v>
@@ -5223,28 +5223,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R13" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S13" t="n">
-        <v>622.0429194582225</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T13" t="n">
-        <v>622.0429194582225</v>
+        <v>713.0409408113302</v>
       </c>
       <c r="U13" t="n">
-        <v>622.0429194582225</v>
+        <v>427.6021490532311</v>
       </c>
       <c r="V13" t="n">
-        <v>622.0429194582225</v>
+        <v>161.6228038740554</v>
       </c>
       <c r="W13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y13" t="n">
-        <v>622.0429194582225</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>784.5587760470498</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="C14" t="n">
-        <v>784.5587760470498</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="D14" t="n">
-        <v>784.5587760470498</v>
+        <v>863.0592504969959</v>
       </c>
       <c r="E14" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="F14" t="n">
-        <v>784.5587760470498</v>
+        <v>460.4757256135405</v>
       </c>
       <c r="G14" t="n">
-        <v>371.396020535053</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I14" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J14" t="n">
-        <v>47.31297010154359</v>
+        <v>191.9627430103717</v>
       </c>
       <c r="K14" t="n">
-        <v>358.4764287842793</v>
+        <v>550.9450990378335</v>
       </c>
       <c r="L14" t="n">
-        <v>851.7967205028082</v>
+        <v>1044.265390756362</v>
       </c>
       <c r="M14" t="n">
-        <v>1397.797620547389</v>
+        <v>1590.266290800943</v>
       </c>
       <c r="N14" t="n">
-        <v>1925.608904184851</v>
+        <v>2118.077574438405</v>
       </c>
       <c r="O14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="P14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="R14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="S14" t="n">
-        <v>2365.648505077179</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="T14" t="n">
-        <v>2142.147902636596</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="U14" t="n">
-        <v>1886.395173071195</v>
+        <v>2142.147902636597</v>
       </c>
       <c r="V14" t="n">
-        <v>1544.288363774713</v>
+        <v>1800.041093340115</v>
       </c>
       <c r="W14" t="n">
-        <v>1173.289328743001</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="X14" t="n">
-        <v>784.5587760470498</v>
+        <v>1429.042058308403</v>
       </c>
       <c r="Y14" t="n">
-        <v>784.5587760470498</v>
+        <v>1263.553996208393</v>
       </c>
     </row>
     <row r="15">
@@ -5351,31 +5351,31 @@
         <v>184.9976404890311</v>
       </c>
       <c r="H15" t="n">
-        <v>96.700224089632</v>
+        <v>96.70022408963202</v>
       </c>
       <c r="I15" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J15" t="n">
-        <v>47.31297010154359</v>
+        <v>160.427952321271</v>
       </c>
       <c r="K15" t="n">
-        <v>47.31297010154359</v>
+        <v>480.1670983834974</v>
       </c>
       <c r="L15" t="n">
-        <v>530.8790559998569</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M15" t="n">
-        <v>1116.377061006459</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="N15" t="n">
-        <v>1701.875066013061</v>
+        <v>1209.14176221491</v>
       </c>
       <c r="O15" t="n">
-        <v>2218.395348604042</v>
+        <v>1725.662044805891</v>
       </c>
       <c r="P15" t="n">
-        <v>2365.648505077179</v>
+        <v>2131.283413522289</v>
       </c>
       <c r="Q15" t="n">
         <v>2365.648505077179</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E16" t="n">
-        <v>691.8442053644512</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F16" t="n">
-        <v>534.5182705774242</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G16" t="n">
-        <v>366.2642166768698</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H16" t="n">
-        <v>210.7856656383638</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I16" t="n">
-        <v>77.69124027544164</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="J16" t="n">
-        <v>47.31297010154359</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="K16" t="n">
         <v>129.1480112114855</v>
       </c>
       <c r="L16" t="n">
-        <v>293.2756510852852</v>
+        <v>293.2756510852853</v>
       </c>
       <c r="M16" t="n">
         <v>479.5672294235493</v>
@@ -5460,28 +5460,28 @@
         <v>948.7599926430961</v>
       </c>
       <c r="R16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="S16" t="n">
-        <v>824.8590032756731</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="T16" t="n">
-        <v>824.8590032756731</v>
+        <v>882.0615091076409</v>
       </c>
       <c r="U16" t="n">
-        <v>824.8590032756731</v>
+        <v>596.6227173495417</v>
       </c>
       <c r="V16" t="n">
-        <v>824.8590032756731</v>
+        <v>330.643372170366</v>
       </c>
       <c r="W16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="X16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="Y16" t="n">
-        <v>824.8590032756731</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="17">
@@ -5491,28 +5491,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2142.621142693967</v>
+        <v>1312.600031018771</v>
       </c>
       <c r="C17" t="n">
-        <v>2142.621142693967</v>
+        <v>919.4245295217017</v>
       </c>
       <c r="D17" t="n">
-        <v>1757.180013910635</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="E17" t="n">
-        <v>1354.596489027179</v>
+        <v>803.0966166076471</v>
       </c>
       <c r="F17" t="n">
-        <v>937.702050557157</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="G17" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H17" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I17" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J17" t="n">
         <v>206.7689006129436</v>
@@ -5548,19 +5548,19 @@
         <v>2677.949313991765</v>
       </c>
       <c r="U17" t="n">
-        <v>2677.949313991765</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V17" t="n">
-        <v>2677.949313991765</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W17" t="n">
-        <v>2677.949313991765</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X17" t="n">
-        <v>2677.949313991765</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="Y17" t="n">
-        <v>2543.115888405364</v>
+        <v>1312.600031018771</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N19" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P19" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q19" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R19" t="n">
-        <v>2982.055395838353</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S19" t="n">
-        <v>2779.239312020903</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T19" t="n">
-        <v>2779.239312020903</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U19" t="n">
-        <v>2493.800520262804</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V19" t="n">
-        <v>2493.800520262804</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W19" t="n">
-        <v>2438.589684881241</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y19" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="20">
@@ -5728,28 +5728,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1720.050363795584</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="C20" t="n">
-        <v>1326.874862298514</v>
+        <v>926.4626335341572</v>
       </c>
       <c r="D20" t="n">
-        <v>941.4337335151823</v>
+        <v>541.021504750825</v>
       </c>
       <c r="E20" t="n">
-        <v>941.4337335151823</v>
+        <v>541.021504750825</v>
       </c>
       <c r="F20" t="n">
-        <v>524.5392950451601</v>
+        <v>541.021504750825</v>
       </c>
       <c r="G20" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H20" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I20" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J20" t="n">
         <v>206.7689006129436</v>
@@ -5767,37 +5767,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O20" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P20" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R20" t="n">
-        <v>3067.963471491297</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S20" t="n">
-        <v>2901.449916432348</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T20" t="n">
-        <v>2677.949313991764</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U20" t="n">
-        <v>2422.196584426363</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V20" t="n">
-        <v>2080.089775129882</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W20" t="n">
-        <v>2080.089775129882</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X20" t="n">
-        <v>2080.089775129882</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y20" t="n">
-        <v>2080.089775129882</v>
+        <v>1319.638135031227</v>
       </c>
     </row>
     <row r="21">
@@ -5816,10 +5816,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E21" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F21" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G21" t="n">
         <v>199.803798091603</v>
@@ -5828,25 +5828,25 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I21" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J21" t="n">
-        <v>62.11912770411551</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>62.11912770411551</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L21" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M21" t="n">
-        <v>802.5350401618138</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N21" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O21" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P21" t="n">
         <v>2380.454662679751</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2697.636305331117</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="C22" t="n">
-        <v>2527.431187397106</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="D22" t="n">
-        <v>2371.798074299621</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="E22" t="n">
-        <v>2216.239262158823</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="F22" t="n">
-        <v>2204.509362664223</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="G22" t="n">
-        <v>2204.509362664223</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="H22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>2204.509362664223</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>2286.344403774165</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>2450.472043647964</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>2636.763621986228</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>2982.658023059146</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>3102.534188835724</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q22" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R22" t="n">
-        <v>3105.956385205775</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S22" t="n">
-        <v>3105.956385205775</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T22" t="n">
-        <v>3105.956385205775</v>
+        <v>525.0310145964513</v>
       </c>
       <c r="U22" t="n">
-        <v>3105.956385205775</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="V22" t="n">
-        <v>3105.956385205775</v>
+        <v>239.5922228383523</v>
       </c>
       <c r="W22" t="n">
-        <v>3105.956385205775</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="X22" t="n">
-        <v>3105.956385205775</v>
+        <v>217.5976787426216</v>
       </c>
       <c r="Y22" t="n">
-        <v>2882.844324022419</v>
+        <v>217.5976787426216</v>
       </c>
     </row>
     <row r="23">
@@ -5965,25 +5965,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2118.902205721014</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C23" t="n">
-        <v>1725.726704223945</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D23" t="n">
-        <v>1340.285575440613</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E23" t="n">
-        <v>937.702050557157</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F23" t="n">
-        <v>937.702050557157</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G23" t="n">
-        <v>524.5392950451601</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H23" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6022,19 +6022,19 @@
         <v>3105.956385205776</v>
       </c>
       <c r="U23" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V23" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W23" t="n">
-        <v>3105.956385205776</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X23" t="n">
-        <v>2915.88766051181</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y23" t="n">
-        <v>2519.396951432411</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="24">
@@ -6068,25 +6068,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>174.7633905351325</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M24" t="n">
-        <v>802.5350401618138</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D25" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E25" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F25" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G25" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H25" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I25" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
         <v>62.11912770411553</v>
@@ -6177,22 +6177,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T25" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U25" t="n">
-        <v>963.5661502456679</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V25" t="n">
-        <v>963.5661502456679</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y25" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="26">
@@ -6202,25 +6202,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1919.518325348037</v>
+        <v>1303.155925325562</v>
       </c>
       <c r="C26" t="n">
-        <v>1526.342823850968</v>
+        <v>909.9804238284923</v>
       </c>
       <c r="D26" t="n">
-        <v>1140.901695067635</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="E26" t="n">
-        <v>738.3181701841797</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="F26" t="n">
-        <v>321.4237317141575</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="G26" t="n">
-        <v>62.11912770411553</v>
+        <v>524.5392950451601</v>
       </c>
       <c r="H26" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I26" t="n">
         <v>62.11912770411553</v>
@@ -6253,25 +6253,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S26" t="n">
-        <v>3105.956385205776</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T26" t="n">
-        <v>3105.956385205776</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U26" t="n">
-        <v>3105.956385205776</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V26" t="n">
-        <v>3105.956385205776</v>
+        <v>2118.082688844361</v>
       </c>
       <c r="W26" t="n">
-        <v>3105.956385205776</v>
+        <v>1747.083653812648</v>
       </c>
       <c r="X26" t="n">
-        <v>2716.503780138833</v>
+        <v>1357.631048745705</v>
       </c>
       <c r="Y26" t="n">
-        <v>2320.013071059434</v>
+        <v>1357.631048745705</v>
       </c>
     </row>
     <row r="27">
@@ -6305,25 +6305,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J27" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K27" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L27" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M27" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N27" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O27" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P27" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q27" t="n">
         <v>2380.454662679751</v>
@@ -6414,16 +6414,16 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T28" t="n">
-        <v>896.8676667102127</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U28" t="n">
-        <v>611.4288749521137</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V28" t="n">
-        <v>345.4495297729379</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W28" t="n">
-        <v>62.11912770411553</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X28" t="n">
         <v>62.11912770411553</v>
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1660.213721337995</v>
+        <v>893.6517152721435</v>
       </c>
       <c r="C29" t="n">
-        <v>1267.038219840925</v>
+        <v>500.4762137750741</v>
       </c>
       <c r="D29" t="n">
-        <v>881.5970910575932</v>
+        <v>500.4762137750741</v>
       </c>
       <c r="E29" t="n">
-        <v>479.0135661741377</v>
+        <v>97.8926888916186</v>
       </c>
       <c r="F29" t="n">
-        <v>62.11912770411553</v>
+        <v>97.8926888916186</v>
       </c>
       <c r="G29" t="n">
-        <v>62.11912770411553</v>
+        <v>97.8926888916186</v>
       </c>
       <c r="H29" t="n">
-        <v>62.11912770411553</v>
+        <v>97.8926888916186</v>
       </c>
       <c r="I29" t="n">
         <v>62.11912770411553</v>
@@ -6490,25 +6490,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S29" t="n">
-        <v>3067.963471491298</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T29" t="n">
-        <v>3067.963471491298</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U29" t="n">
-        <v>3067.963471491298</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V29" t="n">
-        <v>3067.963471491298</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W29" t="n">
-        <v>2846.651781195734</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="X29" t="n">
-        <v>2457.199176128791</v>
+        <v>1690.637170062939</v>
       </c>
       <c r="Y29" t="n">
-        <v>2060.708467049392</v>
+        <v>1294.14646098354</v>
       </c>
     </row>
     <row r="30">
@@ -6548,19 +6548,19 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L30" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M30" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N30" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O30" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P30" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q30" t="n">
         <v>2380.454662679751</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H31" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J31" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K31" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L31" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M31" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N31" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O31" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P31" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T31" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U31" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V31" t="n">
-        <v>3105.956385205776</v>
+        <v>412.1480133083932</v>
       </c>
       <c r="W31" t="n">
-        <v>2980.004190118821</v>
+        <v>128.8176112395708</v>
       </c>
       <c r="X31" t="n">
-        <v>2745.923867901804</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y31" t="n">
-        <v>2522.811806718447</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="32">
@@ -6676,25 +6676,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1548.519290316325</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="C32" t="n">
-        <v>1155.343788819255</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="D32" t="n">
-        <v>769.902660035923</v>
+        <v>1433.096963477125</v>
       </c>
       <c r="E32" t="n">
-        <v>367.3191351524675</v>
+        <v>1030.51343859367</v>
       </c>
       <c r="F32" t="n">
-        <v>62.11912770411553</v>
+        <v>613.6190001236475</v>
       </c>
       <c r="G32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="H32" t="n">
-        <v>62.11912770411553</v>
+        <v>200.4562446116507</v>
       </c>
       <c r="I32" t="n">
         <v>62.11912770411553</v>
@@ -6724,28 +6724,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R32" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S32" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T32" t="n">
-        <v>3105.956385205776</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U32" t="n">
-        <v>3105.956385205776</v>
+        <v>2542.693516884719</v>
       </c>
       <c r="V32" t="n">
-        <v>3105.956385205776</v>
+        <v>2200.586707588237</v>
       </c>
       <c r="W32" t="n">
-        <v>2734.957350174064</v>
+        <v>1829.587672556524</v>
       </c>
       <c r="X32" t="n">
-        <v>2345.50474510712</v>
+        <v>1829.587672556524</v>
       </c>
       <c r="Y32" t="n">
-        <v>1949.014036027722</v>
+        <v>1433.096963477125</v>
       </c>
     </row>
     <row r="33">
@@ -6779,25 +6779,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J33" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K33" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L33" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M33" t="n">
-        <v>1173.45686322911</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N33" t="n">
-        <v>1829.234834439669</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O33" t="n">
-        <v>2345.75511703065</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P33" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q33" t="n">
         <v>2380.454662679751</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="C34" t="n">
-        <v>3105.956385205776</v>
+        <v>373.3110529423983</v>
       </c>
       <c r="D34" t="n">
-        <v>2974.221139894031</v>
+        <v>217.677939844913</v>
       </c>
       <c r="E34" t="n">
-        <v>2818.662327753234</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F34" t="n">
-        <v>2661.336392966206</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G34" t="n">
-        <v>2493.082339065652</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H34" t="n">
-        <v>2337.603788027146</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J34" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K34" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L34" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M34" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N34" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O34" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P34" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T34" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="U34" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="V34" t="n">
-        <v>3105.956385205776</v>
+        <v>678.1273584875689</v>
       </c>
       <c r="W34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="X34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
       <c r="Y34" t="n">
-        <v>3105.956385205776</v>
+        <v>394.7969564187466</v>
       </c>
     </row>
     <row r="35">
@@ -6913,25 +6913,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1243.319282867973</v>
+        <v>1670.242147362502</v>
       </c>
       <c r="C35" t="n">
-        <v>850.1437813709033</v>
+        <v>1277.066645865433</v>
       </c>
       <c r="D35" t="n">
-        <v>464.702652587571</v>
+        <v>1277.066645865433</v>
       </c>
       <c r="E35" t="n">
-        <v>62.11912770411553</v>
+        <v>874.483120981977</v>
       </c>
       <c r="F35" t="n">
-        <v>62.11912770411553</v>
+        <v>457.5886825119547</v>
       </c>
       <c r="G35" t="n">
-        <v>62.11912770411553</v>
+        <v>457.5886825119547</v>
       </c>
       <c r="H35" t="n">
-        <v>62.11912770411553</v>
+        <v>133.5056320784454</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6964,25 +6964,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S35" t="n">
-        <v>3027.616881587594</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T35" t="n">
-        <v>3027.616881587594</v>
+        <v>2715.942227706244</v>
       </c>
       <c r="U35" t="n">
-        <v>2771.864152022193</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="V35" t="n">
-        <v>2429.757342725712</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="W35" t="n">
-        <v>2429.757342725712</v>
+        <v>2460.189498140842</v>
       </c>
       <c r="X35" t="n">
-        <v>2040.304737658769</v>
+        <v>2070.736893073899</v>
       </c>
       <c r="Y35" t="n">
-        <v>1643.81402857937</v>
+        <v>2070.736893073899</v>
       </c>
     </row>
     <row r="36">
@@ -7022,10 +7022,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>1122.744905612751</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D37" t="n">
-        <v>831.8309049339227</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E37" t="n">
-        <v>676.2720927931252</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F37" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G37" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H37" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7125,22 +7125,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T37" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U37" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="V37" t="n">
-        <v>963.5661502456679</v>
+        <v>568.5615909562946</v>
       </c>
       <c r="W37" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="X37" t="n">
-        <v>963.5661502456679</v>
+        <v>285.2311888874722</v>
       </c>
       <c r="Y37" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="38">
@@ -7150,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2319.451518626845</v>
+        <v>2012.018398500169</v>
       </c>
       <c r="C38" t="n">
-        <v>2142.621142693967</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="D38" t="n">
-        <v>1757.180013910635</v>
+        <v>1618.8428970031</v>
       </c>
       <c r="E38" t="n">
-        <v>1354.596489027179</v>
+        <v>1216.259372119644</v>
       </c>
       <c r="F38" t="n">
-        <v>937.702050557157</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G38" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H38" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J38" t="n">
-        <v>206.768900612944</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L38" t="n">
         <v>1059.071548358934</v>
@@ -7198,28 +7198,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S38" t="n">
-        <v>2939.442830146827</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T38" t="n">
-        <v>2715.942227706244</v>
+        <v>3064.756582856366</v>
       </c>
       <c r="U38" t="n">
-        <v>2715.942227706244</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="V38" t="n">
-        <v>2715.942227706244</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="W38" t="n">
-        <v>2715.942227706244</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="X38" t="n">
-        <v>2715.942227706244</v>
+        <v>2809.003853290965</v>
       </c>
       <c r="Y38" t="n">
-        <v>2319.451518626845</v>
+        <v>2412.513144211566</v>
       </c>
     </row>
     <row r="39">
@@ -7253,25 +7253,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>96.81867335321709</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>580.3847592515303</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1208.156408878212</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N39" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O39" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P39" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>2920.748366514475</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C40" t="n">
-        <v>2750.543248580464</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D40" t="n">
-        <v>2594.910135482979</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E40" t="n">
-        <v>2439.351323342181</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F40" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G40" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H40" t="n">
-        <v>2367.982058201044</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I40" t="n">
-        <v>2234.887632838122</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>2204.509362664224</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K40" t="n">
-        <v>2286.344403774166</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L40" t="n">
-        <v>2450.472043647965</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M40" t="n">
-        <v>2636.763621986229</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N40" t="n">
-        <v>2819.953256017438</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O40" t="n">
-        <v>2982.658023059147</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P40" t="n">
-        <v>3102.534188835725</v>
+        <v>960.1439538756169</v>
       </c>
       <c r="Q40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="R40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S40" t="n">
-        <v>3105.956385205776</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T40" t="n">
-        <v>3105.956385205776</v>
+        <v>864.9686437480539</v>
       </c>
       <c r="U40" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="V40" t="n">
-        <v>3105.956385205776</v>
+        <v>579.5298519899548</v>
       </c>
       <c r="W40" t="n">
-        <v>3105.956385205776</v>
+        <v>296.1994499211324</v>
       </c>
       <c r="X40" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y40" t="n">
-        <v>3105.956385205776</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="41">
@@ -7387,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1918.956772915447</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C41" t="n">
-        <v>1525.781271418377</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D41" t="n">
-        <v>1433.096963477125</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E41" t="n">
-        <v>1030.51343859367</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F41" t="n">
-        <v>613.6190001236475</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H41" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I41" t="n">
-        <v>62.1191277041155</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J41" t="n">
         <v>206.7689006129436</v>
@@ -7426,37 +7426,37 @@
         <v>2132.883732040977</v>
       </c>
       <c r="O41" t="n">
-        <v>2572.923332933305</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P41" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205775</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S41" t="n">
-        <v>2939.442830146826</v>
+        <v>2939.442830146827</v>
       </c>
       <c r="T41" t="n">
-        <v>2715.942227706243</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="U41" t="n">
-        <v>2715.942227706243</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="V41" t="n">
-        <v>2715.942227706243</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="W41" t="n">
-        <v>2715.942227706243</v>
+        <v>2874.373407924399</v>
       </c>
       <c r="X41" t="n">
-        <v>2715.942227706243</v>
+        <v>2484.920802857455</v>
       </c>
       <c r="Y41" t="n">
-        <v>2319.451518626844</v>
+        <v>2088.430093778056</v>
       </c>
     </row>
     <row r="42">
@@ -7475,10 +7475,10 @@
         <v>580.741913025719</v>
       </c>
       <c r="E42" t="n">
-        <v>444.2954221366067</v>
+        <v>444.2954221366068</v>
       </c>
       <c r="F42" t="n">
-        <v>319.8636160197385</v>
+        <v>319.8636160197386</v>
       </c>
       <c r="G42" t="n">
         <v>199.803798091603</v>
@@ -7487,28 +7487,28 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J42" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>62.11912770411551</v>
+        <v>381.858273766342</v>
       </c>
       <c r="L42" t="n">
-        <v>174.7633905351325</v>
+        <v>865.4243596646552</v>
       </c>
       <c r="M42" t="n">
-        <v>802.5350401618138</v>
+        <v>1493.196009291336</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.313011372373</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="O42" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P42" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q42" t="n">
         <v>2380.454662679751</v>
@@ -7545,40 +7545,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>308.0818086878571</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>494.3733870261211</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N43" t="n">
         <v>677.5630210573304</v>
@@ -7596,25 +7596,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S43" t="n">
-        <v>963.5661502456679</v>
+        <v>866.6073733628029</v>
       </c>
       <c r="T43" t="n">
-        <v>727.847098413902</v>
+        <v>630.888321531037</v>
       </c>
       <c r="U43" t="n">
-        <v>442.408306655803</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="V43" t="n">
-        <v>442.408306655803</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W43" t="n">
-        <v>159.0779045869806</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="44">
@@ -7633,19 +7633,19 @@
         <v>1294.75984656959</v>
       </c>
       <c r="E44" t="n">
-        <v>892.1763216861345</v>
+        <v>892.1763216861347</v>
       </c>
       <c r="F44" t="n">
         <v>475.2818832161124</v>
       </c>
       <c r="G44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I44" t="n">
-        <v>62.11912770411551</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J44" t="n">
         <v>206.7689006129436</v>
@@ -7733,10 +7733,10 @@
         <v>62.11912770411553</v>
       </c>
       <c r="L45" t="n">
-        <v>545.6852136024288</v>
+        <v>174.7633905351325</v>
       </c>
       <c r="M45" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N45" t="n">
         <v>1458.313011372373</v>
@@ -7836,22 +7836,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T46" t="n">
-        <v>963.5661502456679</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U46" t="n">
-        <v>678.1273584875689</v>
+        <v>611.4288749521137</v>
       </c>
       <c r="V46" t="n">
-        <v>412.1480133083932</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W46" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X46" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y46" t="n">
-        <v>128.8176112395708</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
   </sheetData>
@@ -7978,19 +7978,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K2" t="n">
-        <v>143.0584031792374</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>427.4407941030111</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M2" t="n">
-        <v>701.2411122488187</v>
+        <v>501.5538002401705</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8060,16 +8060,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>683.7992483186067</v>
+        <v>340.274574506989</v>
       </c>
       <c r="N3" t="n">
-        <v>553.2668652653155</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8215,28 +8215,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K5" t="n">
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N5" t="n">
         <v>682.2612020826953</v>
       </c>
       <c r="O5" t="n">
-        <v>545.7463662600587</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>683.7992483186067</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N6" t="n">
-        <v>415.8062469585524</v>
+        <v>333.2595653118428</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8455,13 +8455,13 @@
         <v>117.6798379423461</v>
       </c>
       <c r="K8" t="n">
-        <v>505.666843611017</v>
+        <v>143.0584031792374</v>
       </c>
       <c r="L8" t="n">
-        <v>251.5450406822908</v>
+        <v>651.5514946987026</v>
       </c>
       <c r="M8" t="n">
-        <v>701.2411122488187</v>
+        <v>477.1304116531281</v>
       </c>
       <c r="N8" t="n">
         <v>682.2612020826953</v>
@@ -8473,7 +8473,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8531,19 +8531,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>351.5705978518757</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N9" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
@@ -8689,16 +8689,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K11" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L11" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M11" t="n">
-        <v>701.2411122488187</v>
+        <v>466.7144144634705</v>
       </c>
       <c r="N11" t="n">
         <v>682.2612020826953</v>
@@ -8707,10 +8707,10 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P11" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.4986984183922</v>
+        <v>331.2113854294513</v>
       </c>
       <c r="R11" t="n">
         <v>102.5176150018526</v>
@@ -8768,7 +8768,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
         <v>412.5657697396227</v>
@@ -8777,13 +8777,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>454.5321323046925</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>676.7842391234617</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>270.9005442600792</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8926,10 +8926,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>117.6798379423461</v>
+        <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>457.3649271011926</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -8941,7 +8941,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O14" t="n">
-        <v>594.0482827698827</v>
+        <v>399.6354845339704</v>
       </c>
       <c r="P14" t="n">
         <v>150.3014472409252</v>
@@ -9005,28 +9005,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>683.7992483186067</v>
+        <v>340.2745745069881</v>
       </c>
       <c r="N15" t="n">
-        <v>676.7842391234615</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O15" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>235.823926913393</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9175,7 +9175,7 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N17" t="n">
-        <v>682.2612020826953</v>
+        <v>682.2612020826954</v>
       </c>
       <c r="O17" t="n">
         <v>594.0482827698827</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9421,7 +9421,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q20" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R20" t="n">
         <v>102.5176150018526</v>
@@ -9479,25 +9479,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J21" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N21" t="n">
-        <v>747.7741039759435</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q21" t="n">
         <v>90.98815315591399</v>
@@ -9716,16 +9716,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>203.8424305246122</v>
+        <v>163.9964000092958</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N24" t="n">
         <v>747.7741039759435</v>
@@ -9737,7 +9737,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,28 +9953,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10196,22 +10196,22 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>176.3345925796061</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10369,7 +10369,7 @@
         <v>502.0059847475129</v>
       </c>
       <c r="Q32" t="n">
-        <v>331.2113854294513</v>
+        <v>331.2113854294514</v>
       </c>
       <c r="R32" t="n">
         <v>102.5176150018526</v>
@@ -10427,28 +10427,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P33" t="n">
-        <v>122.133410929518</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10603,7 +10603,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P35" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q35" t="n">
         <v>331.2113854294513</v>
@@ -10670,13 +10670,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N36" t="n">
-        <v>187.5973797276328</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>117.494503443537</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11141,25 +11141,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L42" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N42" t="n">
-        <v>747.7741039759435</v>
+        <v>335.1420048916687</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P42" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q42" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R42" t="n">
         <v>71.01380490566048</v>
@@ -11381,13 +11381,13 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
-        <v>578.5109386733963</v>
+        <v>203.8424305246122</v>
       </c>
       <c r="M45" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -22549,13 +22549,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
         <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
-        <v>71.73477754081148</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>412.725494085322</v>
@@ -22564,7 +22564,7 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>294.2957629510156</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22707,28 +22707,28 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22752,22 +22752,22 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>194.0167212729725</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,7 +22783,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>128.0922553737863</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -22798,7 +22798,7 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>100.2917482183657</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -22831,22 +22831,22 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>385.5580790162737</v>
@@ -23029,13 +23029,13 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
@@ -23068,7 +23068,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -23077,19 +23077,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>262.3184882898124</v>
+        <v>100.2917482183649</v>
       </c>
     </row>
     <row r="9">
@@ -23199,10 +23199,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>108.8015838723061</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -23226,10 +23226,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -23238,10 +23238,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,13 +23269,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F11" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
         <v>136.9537457384598</v>
@@ -23308,22 +23308,22 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>18.69817212721097</v>
+        <v>56.56567163213336</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X11" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>392.5258019886049</v>
@@ -23427,19 +23427,19 @@
         <v>154.0032240193895</v>
       </c>
       <c r="F13" t="n">
-        <v>69.10327304716648</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -23503,7 +23503,7 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>412.725494085322</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23551,7 +23551,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0.7148318472824826</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y14" t="n">
-        <v>392.5258019886049</v>
+        <v>228.692620509595</v>
       </c>
     </row>
     <row r="15">
@@ -23661,22 +23661,22 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E16" t="n">
-        <v>22.31857408727987</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
         <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C17" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>266.4220837105848</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
       </c>
       <c r="Y17" t="n">
-        <v>259.0407106580674</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23937,25 +23937,25 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T19" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>225.8383710203869</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23968,7 +23968,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.05078103332818</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
@@ -23980,16 +23980,16 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G20" t="n">
-        <v>409.0311279568768</v>
+        <v>255.7599946098087</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24031,10 +24031,10 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>392.5258019886049</v>
@@ -24126,25 +24126,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F22" t="n">
-        <v>144.1400749395023</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
         <v>166.5715133615489</v>
       </c>
       <c r="H22" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>131.7634811092929</v>
@@ -24177,25 +24177,25 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>258.7224993933607</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="23">
@@ -24211,22 +24211,22 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24262,7 +24262,7 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U23" t="n">
-        <v>253.1952022697474</v>
+        <v>23.92805476118349</v>
       </c>
       <c r="V23" t="n">
         <v>338.6857412035168</v>
@@ -24271,7 +24271,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X23" t="n">
-        <v>197.3900415692469</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -24369,25 +24369,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D25" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24417,16 +24417,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T25" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>231.7395189948467</v>
@@ -24442,7 +24442,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>342.5594260683413</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -24451,19 +24451,19 @@
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G26" t="n">
-        <v>152.3195699869353</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H26" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,25 +24493,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="27">
@@ -24654,7 +24654,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T28" t="n">
-        <v>167.3303626133475</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>231.7395189948467</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y28" t="n">
         <v>220.8809405715231</v>
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>409.0311279568768</v>
@@ -24700,7 +24700,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I29" t="n">
-        <v>136.9537457384598</v>
+        <v>101.5379201628318</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>148.1904712887871</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24837,7 +24837,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C31" t="n">
         <v>168.5030667546707</v>
@@ -24858,7 +24858,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J31" t="n">
         <v>30.07448747215907</v>
@@ -24894,19 +24894,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>155.8044249120484</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>165.708020294746</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="32">
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>110.5774867114536</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I32" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,25 +24964,25 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1952022697474</v>
+        <v>119.291963133771</v>
       </c>
       <c r="V32" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25077,25 +25077,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C34" t="n">
-        <v>168.5030667546707</v>
+        <v>147.2320223130859</v>
       </c>
       <c r="D34" t="n">
-        <v>23.65888910788232</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
@@ -25131,13 +25131,13 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U34" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W34" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>231.7395189948467</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>409.0311279568768</v>
       </c>
       <c r="H35" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>136.9537457384598</v>
+        <v>66.28110640787325</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,16 +25204,16 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S35" t="n">
-        <v>87.29231092635989</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
         <v>367.2890446813954</v>
@@ -25222,7 +25222,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="36">
@@ -25317,22 +25317,22 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>23.65888910788266</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J37" t="n">
         <v>30.07448747215907</v>
@@ -25365,22 +25365,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T37" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V37" t="n">
-        <v>263.319551727384</v>
+        <v>105.6268993443527</v>
       </c>
       <c r="W37" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25390,13 +25390,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>214.1816743085501</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -25411,7 +25411,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,16 +25438,16 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.0907766675948</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
         <v>338.6857412035168</v>
@@ -25548,19 +25548,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F40" t="n">
-        <v>85.09710294943157</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G40" t="n">
         <v>166.5715133615489</v>
@@ -25569,10 +25569,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25602,19 +25602,19 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T40" t="n">
-        <v>233.3618613134482</v>
+        <v>135.7503298808103</v>
       </c>
       <c r="U40" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25633,7 +25633,7 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>289.8292526336597</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25648,7 +25648,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,7 +25681,7 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>156.8468684159735</v>
       </c>
       <c r="U41" t="n">
         <v>253.1952022697474</v>
@@ -25693,7 +25693,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25836,7 +25836,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>200.7879229792761</v>
+        <v>104.7987338652398</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25851,7 +25851,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>135.7503298808103</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>117.3244398042876</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26076,7 +26076,7 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T46" t="n">
-        <v>233.3618613134482</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621571.6241916663</v>
+        <v>621571.6241916665</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621571.6241916666</v>
+        <v>621571.6241916668</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>621571.6241916665</v>
+        <v>621571.6241916667</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>621571.6241916663</v>
+        <v>621571.6241916667</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>621571.6241916665</v>
+        <v>621571.6241916667</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>700270.7884920278</v>
+        <v>700270.7884920281</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>700270.7884920279</v>
+        <v>700270.7884920281</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>700270.788492028</v>
+        <v>700270.7884920283</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>700270.788492028</v>
+        <v>700270.7884920283</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>700270.7884920283</v>
+        <v>700270.7884920281</v>
       </c>
     </row>
     <row r="14">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>700270.7884920278</v>
+        <v>700270.7884920279</v>
       </c>
     </row>
     <row r="16">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>203273.2178484351</v>
+        <v>203273.217848435</v>
       </c>
       <c r="C2" t="n">
         <v>203273.217848435</v>
@@ -26322,19 +26322,19 @@
         <v>203273.217848435</v>
       </c>
       <c r="E2" t="n">
-        <v>203273.217848435</v>
+        <v>203273.2178484351</v>
       </c>
       <c r="F2" t="n">
         <v>203273.217848435</v>
       </c>
       <c r="G2" t="n">
-        <v>229000.8148323084</v>
+        <v>229000.8148323083</v>
       </c>
       <c r="H2" t="n">
         <v>229000.8148323085</v>
       </c>
       <c r="I2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="J2" t="n">
         <v>229000.8148323085</v>
@@ -26343,16 +26343,16 @@
         <v>229000.8148323084</v>
       </c>
       <c r="L2" t="n">
+        <v>229000.8148323085</v>
+      </c>
+      <c r="M2" t="n">
         <v>229000.8148323084</v>
       </c>
-      <c r="M2" t="n">
-        <v>229000.8148323085</v>
-      </c>
       <c r="N2" t="n">
-        <v>229000.8148323085</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="O2" t="n">
-        <v>229000.8148323083</v>
+        <v>229000.8148323084</v>
       </c>
       <c r="P2" t="n">
         <v>229000.8148323084</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>198195.8059917449</v>
+        <v>198195.805991745</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26380,7 +26380,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>50726.82133126163</v>
+        <v>50726.82133126157</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>34799.204443371</v>
+        <v>34799.20444337101</v>
       </c>
       <c r="C4" t="n">
         <v>34799.20444337101</v>
@@ -26469,25 +26469,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="C5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="D5" t="n">
-        <v>69585.45727717312</v>
+        <v>69585.45727717315</v>
       </c>
       <c r="E5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="F5" t="n">
-        <v>35957.85727717313</v>
+        <v>35957.85727717314</v>
       </c>
       <c r="G5" t="n">
         <v>47210.5370551278</v>
       </c>
       <c r="H5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="I5" t="n">
         <v>47210.5370551278</v>
@@ -26508,7 +26508,7 @@
         <v>47210.5370551278</v>
       </c>
       <c r="O5" t="n">
-        <v>47210.53705512778</v>
+        <v>47210.5370551278</v>
       </c>
       <c r="P5" t="n">
         <v>47210.5370551278</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-99307.24986385391</v>
+        <v>-99981.27599007412</v>
       </c>
       <c r="C6" t="n">
-        <v>98888.55612789089</v>
+        <v>98214.53000167085</v>
       </c>
       <c r="D6" t="n">
-        <v>98888.55612789086</v>
+        <v>98214.53000167085</v>
       </c>
       <c r="E6" t="n">
-        <v>132516.1561278909</v>
+        <v>131842.1300016709</v>
       </c>
       <c r="F6" t="n">
-        <v>132516.1561278909</v>
+        <v>131842.1300016709</v>
       </c>
       <c r="G6" t="n">
-        <v>91801.75686199241</v>
+        <v>91270.66183012725</v>
       </c>
       <c r="H6" t="n">
-        <v>142528.5781932542</v>
+        <v>141997.483161389</v>
       </c>
       <c r="I6" t="n">
-        <v>142528.5781932541</v>
+        <v>141997.4831613889</v>
       </c>
       <c r="J6" t="n">
-        <v>-12210.85617234924</v>
+        <v>-12741.95120421448</v>
       </c>
       <c r="K6" t="n">
-        <v>142528.5781932541</v>
+        <v>141997.483161389</v>
       </c>
       <c r="L6" t="n">
-        <v>142528.5781932541</v>
+        <v>141997.483161389</v>
       </c>
       <c r="M6" t="n">
-        <v>142528.5781932542</v>
+        <v>141997.4831613889</v>
       </c>
       <c r="N6" t="n">
-        <v>142528.5781932541</v>
+        <v>141997.4831613889</v>
       </c>
       <c r="O6" t="n">
-        <v>97989.62027804731</v>
+        <v>97458.52524618221</v>
       </c>
       <c r="P6" t="n">
-        <v>142528.5781932541</v>
+        <v>141997.483161389</v>
       </c>
     </row>
   </sheetData>
@@ -26789,25 +26789,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="D4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="E4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="F4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="G4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
         <v>776.4890963014441</v>
@@ -26828,7 +26828,7 @@
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014439</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,7 +27026,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>591.4121262692948</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>185.0769700321492</v>
+        <v>185.076970032149</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>274.1926243725193</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M2" t="n">
-        <v>551.5160606510915</v>
+        <v>351.8287486424433</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34780,16 +34780,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576771</v>
       </c>
       <c r="N3" t="n">
-        <v>467.8947524111488</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K5" t="n">
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N5" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O5" t="n">
-        <v>396.1825288359623</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>330.4341341043857</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35175,13 +35175,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>362.6084404317796</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>98.29687095179912</v>
+        <v>498.303324968211</v>
       </c>
       <c r="M8" t="n">
-        <v>551.5160606510915</v>
+        <v>327.4053600554008</v>
       </c>
       <c r="N8" t="n">
         <v>533.1427107449111</v>
@@ -35193,7 +35193,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,19 +35251,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>259.1834758025638</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N9" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
@@ -35409,16 +35409,16 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K11" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L11" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>551.5160606510915</v>
+        <v>316.9893628657432</v>
       </c>
       <c r="N11" t="n">
         <v>533.1427107449111</v>
@@ -35427,10 +35427,10 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P11" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35488,7 +35488,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
         <v>322.9688344062893</v>
@@ -35497,13 +35497,13 @@
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>362.1450102553806</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>591.4121262692951</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>178.2129853711903</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>314.3065239219553</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35661,7 +35661,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O14" t="n">
-        <v>444.4844453457863</v>
+        <v>250.071647109874</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -35725,28 +35725,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>591.4121262692948</v>
+        <v>247.8874524576762</v>
       </c>
       <c r="N15" t="n">
-        <v>591.4121262692948</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>148.7405620940783</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35895,7 +35895,7 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N17" t="n">
-        <v>533.1427107449111</v>
+        <v>533.1427107449113</v>
       </c>
       <c r="O17" t="n">
         <v>444.4844453457863</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36141,7 +36141,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q20" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L21" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N21" t="n">
-        <v>662.4019911217769</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P21" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36436,16 +36436,16 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L24" t="n">
-        <v>113.782083667694</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="M24" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
         <v>662.4019911217769</v>
@@ -36457,7 +36457,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36916,22 +36916,22 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>86.27424572268784</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N30" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37089,7 +37089,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q32" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110593</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P33" t="n">
-        <v>35.05004611020335</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37323,7 +37323,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P35" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q35" t="n">
         <v>186.7126870110591</v>
@@ -37390,13 +37390,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N36" t="n">
-        <v>102.2252668734662</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>35.0500461102036</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L39" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N39" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,25 +37861,25 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L42" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N42" t="n">
-        <v>662.4019911217769</v>
+        <v>249.769892037502</v>
       </c>
       <c r="O42" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>488.450591816478</v>
+        <v>113.782083667694</v>
       </c>
       <c r="M45" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
